--- a/src/lib/excels/Chat_Comps.xlsx
+++ b/src/lib/excels/Chat_Comps.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7420106D-9806-4396-BEB5-2F56E96C2E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A174B746-83FA-464C-BF36-82FEC7169426}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{7420106D-9806-4396-BEB5-2F56E96C2E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC59A203-AEEC-4F4D-A6DE-48E8C263F0F6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17664" xr2:uid="{BE838AFB-F090-D047-870C-20BD80558B3B}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{BE838AFB-F090-D047-870C-20BD80558B3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Chats" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="145">
   <si>
     <t>Brand</t>
   </si>
@@ -111,9 +111,6 @@
     <t>History</t>
   </si>
   <si>
-    <t>People per Call</t>
-  </si>
-  <si>
     <t>Call Duration</t>
   </si>
   <si>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t>25*users</t>
+  </si>
+  <si>
+    <t>Users per Call</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -587,16 +587,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -636,8 +636,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DCEA6F5-3E96-AE4F-AF0B-55752F670CDE}" name="Table1" displayName="Table1" ref="A1:T48" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DCEA6F5-3E96-AE4F-AF0B-55752F670CDE}" name="Table1" displayName="Table1" ref="A1:T48" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:T48" xr:uid="{7DCEA6F5-3E96-AE4F-AF0B-55752F670CDE}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{A268BA83-06B6-5A43-8145-1D59E5B64840}" name="Brand"/>
@@ -964,32 +968,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81538D67-8855-E345-AEC8-B1C8AC99A1CC}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="3.125" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="9.625" customWidth="1"/>
-    <col min="15" max="15" width="13.625" customWidth="1"/>
-    <col min="16" max="16" width="12.875" customWidth="1"/>
-    <col min="17" max="17" width="9.375" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1083,43 +1087,43 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
       <c r="P2" t="s">
         <v>15</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
@@ -1127,57 +1131,60 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="L3" s="5">
         <v>2</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="5">
         <v>1</v>
       </c>
       <c r="P3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -1186,57 +1193,60 @@
         <v>6.75</v>
       </c>
       <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L4" s="5">
         <v>50</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S4" s="8">
         <v>6.75</v>
       </c>
       <c r="T4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -1245,57 +1255,60 @@
         <v>11.75</v>
       </c>
       <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" s="5">
         <v>50</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S5" s="8">
         <v>11.75</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -1304,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" s="5">
         <v>100</v>
@@ -1328,36 +1341,36 @@
         <v>60</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O6" s="5">
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
@@ -1366,22 +1379,22 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="5">
         <v>300</v>
@@ -1391,36 +1404,36 @@
         <v>1800</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" s="5">
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S7">
         <v>4</v>
       </c>
       <c r="T7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
       </c>
       <c r="D8" s="5">
         <v>6</v>
@@ -1429,22 +1442,22 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
         <v>54</v>
       </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>55</v>
-      </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L8" s="5">
         <v>300</v>
@@ -1454,36 +1467,36 @@
         <v>1800</v>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S8">
         <v>6</v>
       </c>
       <c r="T8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
       </c>
       <c r="D9" s="5">
         <v>7</v>
@@ -1492,22 +1505,22 @@
         <v>12.5</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
         <v>54</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L9" s="5">
         <v>300</v>
@@ -1517,36 +1530,36 @@
         <v>1800</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S9">
         <v>12.5</v>
       </c>
       <c r="T9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -1556,57 +1569,60 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q10">
         <v>5</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S10">
         <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="5">
         <v>9</v>
@@ -1616,57 +1632,60 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q11">
         <v>25</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S11">
         <v>4</v>
       </c>
       <c r="T11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5">
         <v>10</v>
@@ -1676,57 +1695,60 @@
         <v>750</v>
       </c>
       <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q12">
         <v>250</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S12">
         <v>3</v>
       </c>
       <c r="T12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="5">
         <v>11</v>
@@ -1736,57 +1758,60 @@
         <v>1000</v>
       </c>
       <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q13">
         <v>250</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S13">
         <v>4</v>
       </c>
       <c r="T13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
         <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
       </c>
       <c r="D14" s="5">
         <v>12</v>
@@ -1795,60 +1820,60 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="L14" s="5">
         <v>8</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O14" s="5">
         <v>0</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
       </c>
       <c r="D15" s="5">
         <v>13</v>
@@ -1857,60 +1882,60 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O15" s="5">
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
         <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
       </c>
       <c r="D16" s="5">
         <v>14</v>
@@ -1919,60 +1944,60 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16">
         <v>250</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L16" s="5">
         <v>200</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S16">
         <v>10</v>
       </c>
       <c r="T16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
         <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
       </c>
       <c r="D17" s="5">
         <v>15</v>
@@ -1981,60 +2006,60 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S17">
         <v>10</v>
       </c>
       <c r="T17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
         <v>70</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
       </c>
       <c r="D18" s="5">
         <v>16</v>
@@ -2043,60 +2068,60 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>73</v>
       </c>
-      <c r="H18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
       </c>
       <c r="D19" s="5">
         <v>17</v>
@@ -2105,60 +2130,60 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
         <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
       </c>
       <c r="D20" s="5">
         <v>18</v>
@@ -2167,22 +2192,22 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I20">
         <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L20" s="5">
         <v>100</v>
@@ -2191,36 +2216,36 @@
         <v>40</v>
       </c>
       <c r="N20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
       </c>
       <c r="D21" s="5">
         <v>19</v>
@@ -2229,22 +2254,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L21" s="5">
         <v>100</v>
@@ -2253,36 +2278,36 @@
         <v>40</v>
       </c>
       <c r="N21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
         <v>80</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
       </c>
       <c r="D22" s="5">
         <v>20</v>
@@ -2291,22 +2316,22 @@
         <v>6.67</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L22" s="5">
         <v>100</v>
@@ -2315,36 +2340,36 @@
         <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q22">
         <v>1</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S22" s="8">
         <v>6.67</v>
       </c>
       <c r="T22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
         <v>83</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
       </c>
       <c r="D23" s="5">
         <v>21</v>
@@ -2353,19 +2378,22 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="5">
         <v>100</v>
@@ -2374,36 +2402,36 @@
         <v>40</v>
       </c>
       <c r="N23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q23">
         <v>1</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="5">
         <v>22</v>
@@ -2413,19 +2441,22 @@
         <v>12.491666666666667</v>
       </c>
       <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
         <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L24" s="5">
         <v>100</v>
@@ -2435,37 +2466,37 @@
         <v>1800</v>
       </c>
       <c r="N24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S24" s="8">
         <f>149.9/12</f>
         <v>12.491666666666667</v>
       </c>
       <c r="T24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="5">
         <v>23</v>
@@ -2475,19 +2506,22 @@
         <v>16.658333333333335</v>
       </c>
       <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
         <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L25" s="5">
         <v>300</v>
@@ -2497,37 +2531,37 @@
         <v>1800</v>
       </c>
       <c r="N25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S25" s="8">
         <f>199.9/12</f>
         <v>16.658333333333335</v>
       </c>
       <c r="T25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
         <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
       </c>
       <c r="D26" s="5">
         <v>24</v>
@@ -2536,22 +2570,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I26">
         <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L26" s="5">
         <v>2</v>
@@ -2560,36 +2594,36 @@
         <v>20</v>
       </c>
       <c r="N26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O26" s="5">
         <v>0</v>
       </c>
       <c r="P26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
+      <c r="C27" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
       </c>
       <c r="D27" s="5">
         <v>25</v>
@@ -2598,60 +2632,60 @@
         <v>4.5</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" s="5">
         <v>20</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S27">
         <v>4.5</v>
       </c>
       <c r="T27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
         <v>90</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
       </c>
       <c r="D28" s="5">
         <v>26</v>
@@ -2660,37 +2694,37 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I28">
         <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O28" s="5">
         <v>500</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -2702,18 +2736,18 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
         <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
       </c>
       <c r="D29" s="5">
         <v>27</v>
@@ -2722,60 +2756,60 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q29">
         <v>1</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S29">
         <v>6</v>
       </c>
       <c r="T29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
         <v>95</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
       </c>
       <c r="D30" s="5">
         <v>28</v>
@@ -2784,23 +2818,23 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="L30" s="5">
         <v>0</v>
       </c>
@@ -2808,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O30" s="5">
         <v>10</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -2826,18 +2860,18 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
         <v>95</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
       </c>
       <c r="D31" s="5">
         <v>29</v>
@@ -2846,22 +2880,22 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" s="5">
         <v>100</v>
@@ -2870,36 +2904,36 @@
         <v>40</v>
       </c>
       <c r="N31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S31">
         <v>5</v>
       </c>
       <c r="T31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
         <v>95</v>
-      </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
       </c>
       <c r="D32" s="5">
         <v>30</v>
@@ -2908,60 +2942,60 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L32" s="5">
         <v>300</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q32">
         <v>1</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S32">
         <v>9</v>
       </c>
       <c r="T32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
         <v>103</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>104</v>
-      </c>
-      <c r="C33" t="s">
-        <v>105</v>
       </c>
       <c r="D33" s="5">
         <v>31</v>
@@ -2970,22 +3004,22 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I33">
         <v>500</v>
       </c>
       <c r="J33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L33" s="5">
         <v>100</v>
@@ -2994,36 +3028,36 @@
         <v>40</v>
       </c>
       <c r="N33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O33" s="5">
         <v>0</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S33">
         <v>15</v>
       </c>
       <c r="T33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="5">
         <v>32</v>
@@ -3032,23 +3066,23 @@
         <v>299</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I34">
         <f>5*1024</f>
         <v>5120</v>
       </c>
       <c r="J34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L34" s="5">
         <v>100</v>
@@ -3057,36 +3091,36 @@
         <v>40</v>
       </c>
       <c r="N34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O34" s="5">
         <v>0</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
         <v>108</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>109</v>
       </c>
       <c r="D35" s="5">
         <v>33</v>
@@ -3095,34 +3129,37 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I35">
         <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L35" s="5">
         <v>2</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O35" s="5">
         <v>0</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -3134,18 +3171,18 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
         <v>108</v>
-      </c>
-      <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>109</v>
       </c>
       <c r="D36" s="5">
         <v>34</v>
@@ -3154,60 +3191,60 @@
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O36" s="5">
         <v>0</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S36">
         <v>5</v>
       </c>
       <c r="T36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
         <v>113</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
       </c>
       <c r="D37" s="5">
         <v>35</v>
@@ -3216,60 +3253,60 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s">
         <v>115</v>
       </c>
-      <c r="H37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" t="s">
-        <v>116</v>
-      </c>
       <c r="J37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L37" s="5">
         <v>4</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q37">
         <v>1</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
         <v>113</v>
-      </c>
-      <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>114</v>
       </c>
       <c r="D38" s="5">
         <v>36</v>
@@ -3278,84 +3315,84 @@
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L38" s="5">
         <v>4</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q38">
         <v>1</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S38">
         <v>5</v>
       </c>
       <c r="T38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
         <v>118</v>
       </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" s="5">
+        <v>37</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="5">
-        <v>37</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" t="s">
-        <v>120</v>
-      </c>
       <c r="H39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I39">
         <v>100</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L39" s="5">
         <v>100</v>
@@ -3364,60 +3401,60 @@
         <v>60</v>
       </c>
       <c r="N39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O39" s="5">
         <v>0</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S39" s="6">
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
         <v>118</v>
-      </c>
-      <c r="B40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" t="s">
-        <v>119</v>
       </c>
       <c r="D40" s="5">
         <v>38</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L40" s="5">
         <v>1000</v>
@@ -3427,60 +3464,60 @@
         <v>1440</v>
       </c>
       <c r="N40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S40" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="T40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>121</v>
       </c>
-      <c r="T40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
         <v>122</v>
       </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" s="5">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="5">
-        <v>39</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" t="s">
-        <v>124</v>
-      </c>
       <c r="H41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L41" s="5">
         <v>100</v>
@@ -3489,36 +3526,36 @@
         <v>40</v>
       </c>
       <c r="N41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
         <v>122</v>
-      </c>
-      <c r="B42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" t="s">
-        <v>123</v>
       </c>
       <c r="D42" s="5">
         <v>40</v>
@@ -3527,22 +3564,22 @@
         <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L42" s="5">
         <v>200</v>
@@ -3552,36 +3589,36 @@
         <v>1440</v>
       </c>
       <c r="N42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q42">
         <v>1</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S42">
         <v>12</v>
       </c>
       <c r="T42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>127</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
       </c>
       <c r="D43" s="5">
         <v>41</v>
@@ -3591,37 +3628,37 @@
         <v>57.5</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L43" s="5">
         <v>5</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -3633,18 +3670,18 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="5">
         <v>42</v>
@@ -3654,37 +3691,37 @@
         <v>107.5</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L44" s="5">
         <v>5</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q44">
         <v>30</v>
@@ -3696,18 +3733,18 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" s="5">
         <v>43</v>
@@ -3716,60 +3753,60 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L45" s="5">
         <v>5</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O45" s="5">
         <v>0</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q45">
         <v>1</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S45">
         <v>4</v>
       </c>
       <c r="T45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
         <v>136</v>
-      </c>
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" t="s">
-        <v>137</v>
       </c>
       <c r="D46" s="5">
         <v>44</v>
@@ -3778,173 +3815,173 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I46">
         <v>6</v>
       </c>
       <c r="J46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L46" s="5">
         <v>75</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O46" s="5">
         <v>0</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q46">
         <v>1</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
         <v>136</v>
-      </c>
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" t="s">
-        <v>137</v>
       </c>
       <c r="D47" s="5">
         <v>45</v>
       </c>
       <c r="E47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
         <v>139</v>
       </c>
-      <c r="F47" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s">
         <v>140</v>
       </c>
-      <c r="H47" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" t="s">
-        <v>141</v>
-      </c>
       <c r="J47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L47" s="5">
         <v>75</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q47">
         <v>1</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
         <v>136</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>137</v>
       </c>
       <c r="D48" s="5">
         <v>46</v>
       </c>
       <c r="E48" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
         <v>142</v>
       </c>
-      <c r="F48" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s">
         <v>143</v>
       </c>
-      <c r="H48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I48" t="s">
-        <v>144</v>
-      </c>
       <c r="J48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L48" s="5">
         <v>75</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q48">
         <v>1</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/lib/excels/Chat_Comps.xlsx
+++ b/src/lib/excels/Chat_Comps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{7420106D-9806-4396-BEB5-2F56E96C2E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC59A203-AEEC-4F4D-A6DE-48E8C263F0F6}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{7420106D-9806-4396-BEB5-2F56E96C2E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE045B63-0B64-4846-BAE3-B4081721F03A}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{BE838AFB-F090-D047-870C-20BD80558B3B}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Base Price</t>
   </si>
   <si>
-    <t>Final Price</t>
-  </si>
-  <si>
     <t>Extras Included</t>
   </si>
   <si>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t>Users per Call</t>
+  </si>
+  <si>
+    <t>Final Price $</t>
   </si>
 </sst>
 </file>
@@ -634,10 +634,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -969,7 +965,7 @@
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1069,61 +1065,61 @@
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
       </c>
       <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
       <c r="P2" t="s">
         <v>15</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
@@ -1131,60 +1127,60 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="L3" s="5">
         <v>2</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O3" s="5">
         <v>1</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -1193,60 +1189,60 @@
         <v>6.75</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" s="5">
         <v>50</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S4" s="8">
         <v>6.75</v>
       </c>
       <c r="T4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -1255,60 +1251,60 @@
         <v>11.75</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="5">
         <v>50</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S5" s="8">
         <v>11.75</v>
       </c>
       <c r="T5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
@@ -1317,22 +1313,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="5">
         <v>100</v>
@@ -1341,36 +1337,36 @@
         <v>60</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="5">
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
@@ -1379,22 +1375,22 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="5">
         <v>300</v>
@@ -1404,36 +1400,36 @@
         <v>1800</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="5">
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S7">
         <v>4</v>
       </c>
       <c r="T7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="5">
         <v>6</v>
@@ -1442,22 +1438,22 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" s="5">
         <v>300</v>
@@ -1467,36 +1463,36 @@
         <v>1800</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S8">
         <v>6</v>
       </c>
       <c r="T8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
       </c>
       <c r="D9" s="5">
         <v>7</v>
@@ -1505,22 +1501,22 @@
         <v>12.5</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
         <v>53</v>
       </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="5">
         <v>300</v>
@@ -1530,36 +1526,36 @@
         <v>1800</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S9">
         <v>12.5</v>
       </c>
       <c r="T9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -1569,60 +1565,60 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q10">
         <v>5</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S10">
         <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5">
         <v>9</v>
@@ -1632,60 +1628,60 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11">
         <v>25</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S11">
         <v>4</v>
       </c>
       <c r="T11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="5">
         <v>10</v>
@@ -1695,60 +1691,60 @@
         <v>750</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q12">
         <v>250</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S12">
         <v>3</v>
       </c>
       <c r="T12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="5">
         <v>11</v>
@@ -1758,60 +1754,60 @@
         <v>1000</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q13">
         <v>250</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S13">
         <v>4</v>
       </c>
       <c r="T13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
       </c>
       <c r="D14" s="5">
         <v>12</v>
@@ -1820,60 +1816,60 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="H14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="L14" s="5">
         <v>8</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O14" s="5">
         <v>0</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
         <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
       </c>
       <c r="D15" s="5">
         <v>13</v>
@@ -1882,60 +1878,60 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O15" s="5">
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
       </c>
       <c r="D16" s="5">
         <v>14</v>
@@ -1944,60 +1940,60 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16">
         <v>250</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L16" s="5">
         <v>200</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S16">
         <v>10</v>
       </c>
       <c r="T16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
         <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>63</v>
       </c>
       <c r="D17" s="5">
         <v>15</v>
@@ -2006,60 +2002,60 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S17">
         <v>10</v>
       </c>
       <c r="T17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
       </c>
       <c r="D18" s="5">
         <v>16</v>
@@ -2068,22 +2064,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
@@ -2092,36 +2088,36 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O18" s="5">
         <v>0</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
       </c>
       <c r="D19" s="5">
         <v>17</v>
@@ -2130,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
@@ -2154,36 +2150,36 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O19" s="5">
         <v>0</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
       </c>
       <c r="D20" s="5">
         <v>18</v>
@@ -2192,22 +2188,22 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20">
         <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L20" s="5">
         <v>100</v>
@@ -2216,36 +2212,36 @@
         <v>40</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
         <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
       </c>
       <c r="D21" s="5">
         <v>19</v>
@@ -2254,22 +2250,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L21" s="5">
         <v>100</v>
@@ -2278,36 +2274,36 @@
         <v>40</v>
       </c>
       <c r="N21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q21">
         <v>1</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
         <v>76</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" t="s">
-        <v>77</v>
       </c>
       <c r="D22" s="5">
         <v>20</v>
@@ -2316,22 +2312,22 @@
         <v>6.67</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" s="5">
         <v>100</v>
@@ -2340,36 +2336,36 @@
         <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q22">
         <v>1</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S22" s="8">
         <v>6.67</v>
       </c>
       <c r="T22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
         <v>82</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
       </c>
       <c r="D23" s="5">
         <v>21</v>
@@ -2378,22 +2374,22 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="5">
         <v>100</v>
@@ -2402,36 +2398,36 @@
         <v>40</v>
       </c>
       <c r="N23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q23">
         <v>1</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="5">
         <v>22</v>
@@ -2441,22 +2437,22 @@
         <v>12.491666666666667</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L24" s="5">
         <v>100</v>
@@ -2466,37 +2462,37 @@
         <v>1800</v>
       </c>
       <c r="N24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S24" s="8">
         <f>149.9/12</f>
         <v>12.491666666666667</v>
       </c>
       <c r="T24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="5">
         <v>23</v>
@@ -2506,22 +2502,22 @@
         <v>16.658333333333335</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" s="5">
         <v>300</v>
@@ -2531,37 +2527,37 @@
         <v>1800</v>
       </c>
       <c r="N25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S25" s="8">
         <f>199.9/12</f>
         <v>16.658333333333335</v>
       </c>
       <c r="T25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
         <v>86</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
       </c>
       <c r="D26" s="5">
         <v>24</v>
@@ -2570,22 +2566,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I26">
         <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L26" s="5">
         <v>2</v>
@@ -2594,36 +2590,36 @@
         <v>20</v>
       </c>
       <c r="N26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O26" s="5">
         <v>0</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
         <v>86</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
       </c>
       <c r="D27" s="5">
         <v>25</v>
@@ -2632,60 +2628,60 @@
         <v>4.5</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L27" s="5">
         <v>20</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S27">
         <v>4.5</v>
       </c>
       <c r="T27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
         <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
       </c>
       <c r="D28" s="5">
         <v>26</v>
@@ -2694,37 +2690,37 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I28">
         <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O28" s="5">
         <v>500</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -2736,18 +2732,18 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
         <v>89</v>
-      </c>
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
       </c>
       <c r="D29" s="5">
         <v>27</v>
@@ -2756,60 +2752,60 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q29">
         <v>1</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S29">
         <v>6</v>
       </c>
       <c r="T29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
         <v>94</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
       </c>
       <c r="D30" s="5">
         <v>28</v>
@@ -2818,23 +2814,23 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H30" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="L30" s="5">
         <v>0</v>
       </c>
@@ -2842,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O30" s="5">
         <v>10</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -2860,18 +2856,18 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
         <v>94</v>
-      </c>
-      <c r="B31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
       </c>
       <c r="D31" s="5">
         <v>29</v>
@@ -2880,22 +2876,22 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L31" s="5">
         <v>100</v>
@@ -2904,36 +2900,36 @@
         <v>40</v>
       </c>
       <c r="N31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S31">
         <v>5</v>
       </c>
       <c r="T31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
         <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
       </c>
       <c r="D32" s="5">
         <v>30</v>
@@ -2942,60 +2938,60 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L32" s="5">
         <v>300</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q32">
         <v>1</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S32">
         <v>9</v>
       </c>
       <c r="T32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
         <v>102</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>103</v>
-      </c>
-      <c r="C33" t="s">
-        <v>104</v>
       </c>
       <c r="D33" s="5">
         <v>31</v>
@@ -3004,22 +3000,22 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I33">
         <v>500</v>
       </c>
       <c r="J33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" s="5">
         <v>100</v>
@@ -3028,36 +3024,36 @@
         <v>40</v>
       </c>
       <c r="N33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O33" s="5">
         <v>0</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S33">
         <v>15</v>
       </c>
       <c r="T33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="5">
         <v>32</v>
@@ -3066,23 +3062,23 @@
         <v>299</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I34">
         <f>5*1024</f>
         <v>5120</v>
       </c>
       <c r="J34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L34" s="5">
         <v>100</v>
@@ -3091,36 +3087,36 @@
         <v>40</v>
       </c>
       <c r="N34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O34" s="5">
         <v>0</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
         <v>107</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s">
-        <v>108</v>
       </c>
       <c r="D35" s="5">
         <v>33</v>
@@ -3129,37 +3125,37 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I35">
         <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L35" s="5">
         <v>2</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O35" s="5">
         <v>0</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -3171,18 +3167,18 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
         <v>107</v>
-      </c>
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>108</v>
       </c>
       <c r="D36" s="5">
         <v>34</v>
@@ -3191,122 +3187,122 @@
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O36" s="5">
         <v>0</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q36">
         <v>1</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S36">
         <v>5</v>
       </c>
       <c r="T36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
         <v>112</v>
       </c>
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" s="5">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="5">
-        <v>35</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s">
         <v>114</v>
       </c>
-      <c r="H37" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" t="s">
-        <v>115</v>
-      </c>
       <c r="J37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L37" s="5">
         <v>4</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q37">
         <v>1</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
         <v>112</v>
-      </c>
-      <c r="B38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
       </c>
       <c r="D38" s="5">
         <v>36</v>
@@ -3315,60 +3311,60 @@
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L38" s="5">
         <v>4</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q38">
         <v>1</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S38">
         <v>5</v>
       </c>
       <c r="T38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
         <v>117</v>
-      </c>
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
-        <v>118</v>
       </c>
       <c r="D39" s="5">
         <v>37</v>
@@ -3377,22 +3373,22 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I39">
         <v>100</v>
       </c>
       <c r="J39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L39" s="5">
         <v>100</v>
@@ -3401,60 +3397,60 @@
         <v>60</v>
       </c>
       <c r="N39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O39" s="5">
         <v>0</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S39" s="6">
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="B40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" s="5">
+        <v>38</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="5">
-        <v>38</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s">
-        <v>119</v>
-      </c>
       <c r="H40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L40" s="5">
         <v>1000</v>
@@ -3464,60 +3460,60 @@
         <v>1440</v>
       </c>
       <c r="N40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
         <v>121</v>
       </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" s="5">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="5">
-        <v>39</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" t="s">
-        <v>123</v>
-      </c>
       <c r="H41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L41" s="5">
         <v>100</v>
@@ -3526,36 +3522,36 @@
         <v>40</v>
       </c>
       <c r="N41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
         <v>121</v>
-      </c>
-      <c r="B42" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>122</v>
       </c>
       <c r="D42" s="5">
         <v>40</v>
@@ -3564,22 +3560,22 @@
         <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L42" s="5">
         <v>200</v>
@@ -3589,36 +3585,36 @@
         <v>1440</v>
       </c>
       <c r="N42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q42">
         <v>1</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S42">
         <v>12</v>
       </c>
       <c r="T42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
         <v>125</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" t="s">
-        <v>127</v>
       </c>
       <c r="D43" s="5">
         <v>41</v>
@@ -3628,37 +3624,37 @@
         <v>57.5</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L43" s="5">
         <v>5</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -3670,18 +3666,18 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="5">
         <v>42</v>
@@ -3691,37 +3687,37 @@
         <v>107.5</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L44" s="5">
         <v>5</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q44">
         <v>30</v>
@@ -3733,18 +3729,18 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" s="5">
         <v>43</v>
@@ -3753,60 +3749,60 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L45" s="5">
         <v>5</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O45" s="5">
         <v>0</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q45">
         <v>1</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S45">
         <v>4</v>
       </c>
       <c r="T45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
         <v>135</v>
-      </c>
-      <c r="B46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" t="s">
-        <v>136</v>
       </c>
       <c r="D46" s="5">
         <v>44</v>
@@ -3815,173 +3811,173 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I46">
         <v>6</v>
       </c>
       <c r="J46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L46" s="5">
         <v>75</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O46" s="5">
         <v>0</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q46">
         <v>1</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" t="s">
         <v>135</v>
-      </c>
-      <c r="B47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" t="s">
-        <v>136</v>
       </c>
       <c r="D47" s="5">
         <v>45</v>
       </c>
       <c r="E47" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s">
         <v>138</v>
       </c>
-      <c r="F47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" t="s">
         <v>139</v>
       </c>
-      <c r="H47" t="s">
-        <v>36</v>
-      </c>
-      <c r="I47" t="s">
-        <v>140</v>
-      </c>
       <c r="J47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L47" s="5">
         <v>75</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q47">
         <v>1</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
         <v>135</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" t="s">
-        <v>136</v>
       </c>
       <c r="D48" s="5">
         <v>46</v>
       </c>
       <c r="E48" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s">
         <v>141</v>
       </c>
-      <c r="F48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" t="s">
         <v>142</v>
       </c>
-      <c r="H48" t="s">
-        <v>36</v>
-      </c>
-      <c r="I48" t="s">
-        <v>143</v>
-      </c>
       <c r="J48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L48" s="5">
         <v>75</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q48">
         <v>1</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/lib/excels/Chat_Comps.xlsx
+++ b/src/lib/excels/Chat_Comps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{7420106D-9806-4396-BEB5-2F56E96C2E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE045B63-0B64-4846-BAE3-B4081721F03A}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{7420106D-9806-4396-BEB5-2F56E96C2E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0562E2E1-833A-7E44-B70D-3EBB85148BE1}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{BE838AFB-F090-D047-870C-20BD80558B3B}"/>
   </bookViews>
@@ -465,7 +465,7 @@
     <t>Users per Call</t>
   </si>
   <si>
-    <t>Final Price $</t>
+    <t>Monthly Price $</t>
   </si>
 </sst>
 </file>
@@ -634,6 +634,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/src/lib/excels/Chat_Comps.xlsx
+++ b/src/lib/excels/Chat_Comps.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{7420106D-9806-4396-BEB5-2F56E96C2E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0562E2E1-833A-7E44-B70D-3EBB85148BE1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E1BA35-6FAE-6048-93B9-2FC9CC692815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{BE838AFB-F090-D047-870C-20BD80558B3B}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{BE838AFB-F090-D047-870C-20BD80558B3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Chats" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="164">
   <si>
     <t>Brand</t>
   </si>
@@ -466,6 +466,63 @@
   </si>
   <si>
     <t>Monthly Price $</t>
+  </si>
+  <si>
+    <t>mcdm_ChatFiles</t>
+  </si>
+  <si>
+    <t>mcdm_History</t>
+  </si>
+  <si>
+    <t>mcdm_PerCall</t>
+  </si>
+  <si>
+    <t>mcmd_CallDuration</t>
+  </si>
+  <si>
+    <t>mcdm_FreeGuests</t>
+  </si>
+  <si>
+    <t>mcmd_Integrations</t>
+  </si>
+  <si>
+    <t>mcdm_NUsers</t>
+  </si>
+  <si>
+    <t>mcdm_Support</t>
+  </si>
+  <si>
+    <t>mcdm_Rank</t>
+  </si>
+  <si>
+    <t>MCDM Ranking</t>
+  </si>
+  <si>
+    <t>Rank added to the json</t>
+  </si>
+  <si>
+    <t>Chat Files GB MCDM</t>
+  </si>
+  <si>
+    <t>History MCDM</t>
+  </si>
+  <si>
+    <t>Users per Call MCDM</t>
+  </si>
+  <si>
+    <t>Call Duration MCDM</t>
+  </si>
+  <si>
+    <t>Free Guests MCDM</t>
+  </si>
+  <si>
+    <t>Integrations MCDM</t>
+  </si>
+  <si>
+    <t>Users MCDM</t>
+  </si>
+  <si>
+    <t>Commercial Support MCDM</t>
   </si>
 </sst>
 </file>
@@ -549,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -565,11 +622,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -636,34 +712,39 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DCEA6F5-3E96-AE4F-AF0B-55752F670CDE}" name="Table1" displayName="Table1" ref="A1:T48" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:T48" xr:uid="{7DCEA6F5-3E96-AE4F-AF0B-55752F670CDE}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DCEA6F5-3E96-AE4F-AF0B-55752F670CDE}" name="Table1" displayName="Table1" ref="A1:AC48" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A1:AC48" xr:uid="{7DCEA6F5-3E96-AE4F-AF0B-55752F670CDE}"/>
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{A268BA83-06B6-5A43-8145-1D59E5B64840}" name="Brand"/>
     <tableColumn id="2" xr3:uid="{EE29F376-FBC4-3A47-8903-BA77875AF990}" name="Service"/>
     <tableColumn id="3" xr3:uid="{A7BDED9B-D1BD-8A48-98A7-51AAC1C9CAC3}" name="desc_Service"/>
     <tableColumn id="4" xr3:uid="{F5200A5C-8DC2-EE4E-967E-0366394F218A}" name="colID"/>
     <tableColumn id="5" xr3:uid="{C3A4F9E5-A3D2-7544-8D09-86B9205F30A9}" name="LicenseCost$PerMonth"/>
     <tableColumn id="6" xr3:uid="{3F8629B0-D393-7D43-8988-AE1A856A4D8B}" name="CalculatedCost"/>
+    <tableColumn id="29" xr3:uid="{47EC2701-5A40-7541-803B-3158ED32F64D}" name="mcdm_Rank"/>
     <tableColumn id="7" xr3:uid="{19B90D66-46F8-A44C-B6D4-BC4B6FA053CA}" name="ExtrasIncluded"/>
     <tableColumn id="21" xr3:uid="{06B46DFC-AA79-4121-A9A8-62D0AC165417}" name="ChatFilesGBFinal"/>
     <tableColumn id="13" xr3:uid="{DE2CD0C5-D101-490C-A75D-7A4A04898265}" name="ChatFilesFormulaGB"/>
+    <tableColumn id="19" xr3:uid="{9BFCCC98-34E2-D44E-856E-063A237B15F3}" name="mcdm_ChatFiles"/>
     <tableColumn id="8" xr3:uid="{9216AE93-752D-704C-AAB0-2A733AF64CEA}" name="Self-hosted"/>
     <tableColumn id="14" xr3:uid="{17E9055E-BF03-1D40-985C-A22E6A34E9E9}" name="MsgHistory"/>
-    <tableColumn id="15" xr3:uid="{C94760F5-665D-4C42-9CE9-DCEF5113E3F7}" name="PeoplePerCall" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{BF8B6D2F-4FE6-E448-92B0-359EE44C6739}" name="CallDurationMins" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{814CEF8B-C64B-4BFA-B00B-F9AEE25BCAD2}" name="FreeTemporaryGuestsFinal" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{717B600E-4D15-CC4D-ABF8-FD3163268EC7}" name="FreeTemporaryGuestsFormula" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{F93A8305-F6F3-2F47-9B41-3731879587DD}" name="Integrations" dataDxfId="0"/>
+    <tableColumn id="22" xr3:uid="{4A3EBA80-2A10-DE49-8C41-F6FF6A3B7111}" name="mcdm_History" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{C94760F5-665D-4C42-9CE9-DCEF5113E3F7}" name="PeoplePerCall" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{28BEDDC1-22FE-C742-B234-056ECCF145CD}" name="mcdm_PerCall" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{BF8B6D2F-4FE6-E448-92B0-359EE44C6739}" name="CallDurationMins" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{49E9C8D4-A971-594F-AE71-DB346620A0EA}" name="mcmd_CallDuration" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{814CEF8B-C64B-4BFA-B00B-F9AEE25BCAD2}" name="FreeTemporaryGuestsFinal" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{717B600E-4D15-CC4D-ABF8-FD3163268EC7}" name="FreeTemporaryGuestsFormula" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{4D85BF2D-74AD-EB4E-980C-BD679E27F100}" name="mcdm_FreeGuests" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{F93A8305-F6F3-2F47-9B41-3731879587DD}" name="Integrations" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{067F74D8-E8CE-EA46-8882-D4FF37531E28}" name="mcmd_Integrations" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{5A5438F3-F76D-4E4B-9FE7-DC3554ACDC07}" name="IncludedUsers"/>
     <tableColumn id="10" xr3:uid="{2AA8CDE0-B208-3B43-ADC1-B2D19A24CBA1}" name="MaxUsers"/>
     <tableColumn id="11" xr3:uid="{3674871A-D1F7-6943-BA81-B6BA5BA5C4BE}" name="PriceExtraUser$"/>
+    <tableColumn id="27" xr3:uid="{23A44BD8-C9A0-D247-B3A0-0E3AE8407D16}" name="mcdm_NUsers"/>
     <tableColumn id="12" xr3:uid="{ACADCAB7-AB13-7E4A-A0BD-D044871FFF5A}" name="CommercialSupport"/>
+    <tableColumn id="28" xr3:uid="{84E7588C-CE5D-BA4B-9DFB-7C0E5C5DB538}" name="mcdm_Support"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -966,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81538D67-8855-E345-AEC8-B1C8AC99A1CC}">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -979,21 +1060,23 @@
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="3.1640625" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" customWidth="1"/>
+    <col min="20" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="23" width="12.83203125" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,50 +1095,77 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="U1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="W1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="AC1" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1071,50 +1181,77 @@
       <c r="F2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" t="s">
         <v>143</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
+        <v>159</v>
+      </c>
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
+        <v>160</v>
+      </c>
+      <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="W2" t="s">
+        <v>161</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="AC2" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1134,49 +1271,76 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="5">
-        <v>2</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
+      <c r="N3" s="5">
+        <v>0</v>
       </c>
       <c r="O3" s="5">
-        <v>1</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="6">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="5">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>4</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1196,49 +1360,76 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="K4" s="9">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
         <v>50</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="8">
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="6">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="5">
+        <v>4</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="5">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="8">
         <v>6.75</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AA4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="s">
         <v>42</v>
       </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1258,49 +1449,76 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
         <v>44</v>
       </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="K5" s="9">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
         <v>50</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="8">
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="6">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="5">
+        <v>4</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="8">
         <v>11.75</v>
       </c>
-      <c r="T5" t="s">
+      <c r="AA5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="s">
         <v>42</v>
       </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1320,49 +1538,76 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
       <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="K6" s="9">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
         <v>100</v>
       </c>
-      <c r="M6" s="5">
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="5">
         <v>60</v>
       </c>
-      <c r="N6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>36</v>
+      <c r="R6" s="6">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1382,50 +1627,77 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
       <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
         <v>48</v>
       </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="K7" s="9">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
         <v>300</v>
       </c>
-      <c r="M7" s="5">
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="5">
         <f>30*60</f>
         <v>1800</v>
       </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7">
-        <v>4</v>
-      </c>
-      <c r="T7" t="s">
-        <v>39</v>
+      <c r="R7" s="6">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1445,50 +1717,77 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
       <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
         <v>53</v>
       </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="K8" s="9">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
         <v>300</v>
       </c>
-      <c r="M8" s="5">
-        <f t="shared" ref="M8:M9" si="0">30*60</f>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" ref="Q8:Q9" si="0">30*60</f>
         <v>1800</v>
       </c>
-      <c r="N8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S8">
+      <c r="R8" s="6">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="5">
+        <v>4</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="5">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8">
         <v>6</v>
       </c>
-      <c r="T8" t="s">
+      <c r="AA8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="s">
         <v>42</v>
       </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1508,50 +1807,77 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
       <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
         <v>53</v>
       </c>
-      <c r="J9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="K9" s="9">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
         <v>300</v>
       </c>
-      <c r="M9" s="5">
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="5">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S9">
+      <c r="R9" s="6">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="5">
+        <v>4</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="5">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9">
         <v>12.5</v>
       </c>
-      <c r="T9" t="s">
+      <c r="AA9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB9" t="s">
         <v>42</v>
       </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -1572,49 +1898,76 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="9">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N10" t="s">
-        <v>35</v>
+      <c r="N10" s="5">
+        <v>1</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10">
+      <c r="P10">
         <v>5</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10">
-        <v>3</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="Q10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="6">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="5">
+        <v>4</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="5">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z10">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB10" t="s">
         <v>42</v>
       </c>
+      <c r="AC10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1635,49 +1988,76 @@
         <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="9">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N11" t="s">
-        <v>35</v>
+      <c r="N11" s="5">
+        <v>1</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11">
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="6">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="5">
+        <v>4</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" s="5">
+        <v>2</v>
+      </c>
+      <c r="X11">
         <v>25</v>
       </c>
-      <c r="R11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11">
-        <v>4</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="Y11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB11" t="s">
         <v>42</v>
       </c>
+      <c r="AC11">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1698,49 +2078,76 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="9">
+        <v>5</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N12" t="s">
-        <v>35</v>
+      <c r="N12" s="5">
+        <v>1</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12">
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="6">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" s="5">
+        <v>4</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" s="5">
+        <v>2</v>
+      </c>
+      <c r="X12">
         <v>250</v>
       </c>
-      <c r="R12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12">
-        <v>3</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="Y12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AA12">
+        <v>4</v>
+      </c>
+      <c r="AB12" t="s">
         <v>42</v>
       </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1761,49 +2168,76 @@
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="9">
+        <v>5</v>
+      </c>
+      <c r="L13" t="s">
+        <v>39</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N13" t="s">
-        <v>35</v>
+      <c r="N13" s="5">
+        <v>1</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q13">
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" s="6">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="5">
+        <v>4</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" s="5">
+        <v>2</v>
+      </c>
+      <c r="X13">
         <v>250</v>
       </c>
-      <c r="R13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13">
-        <v>4</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="Y13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AB13" t="s">
         <v>42</v>
       </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1823,49 +2257,76 @@
         <v>35</v>
       </c>
       <c r="G14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" t="s">
         <v>63</v>
       </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="5">
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
         <v>8</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
-        <v>39</v>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" s="6">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" s="5">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>4</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1885,49 +2346,76 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" t="s">
         <v>63</v>
       </c>
-      <c r="H15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>38</v>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="9">
+        <v>5</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
-        <v>39</v>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" s="6">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" s="5">
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1947,49 +2435,76 @@
         <v>35</v>
       </c>
       <c r="G16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" t="s">
         <v>63</v>
       </c>
-      <c r="H16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16">
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16">
         <v>250</v>
       </c>
-      <c r="J16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="5">
+      <c r="K16" s="9">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
         <v>200</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S16">
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" s="6">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" s="5">
+        <v>4</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" s="5">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z16">
         <v>10</v>
       </c>
-      <c r="T16" t="s">
+      <c r="AA16" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB16" t="s">
         <v>42</v>
       </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -2009,49 +2524,76 @@
         <v>35</v>
       </c>
       <c r="G17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" t="s">
         <v>63</v>
       </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>38</v>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="9">
+        <v>5</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N17" t="s">
-        <v>35</v>
+      <c r="N17" s="5">
+        <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S17">
+      <c r="P17">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" s="6">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" s="5">
+        <v>4</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="5">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z17">
         <v>10</v>
       </c>
-      <c r="T17" t="s">
+      <c r="AA17" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB17" t="s">
         <v>42</v>
       </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -2071,49 +2613,76 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" t="s">
         <v>71</v>
       </c>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>35</v>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="9">
+        <v>5</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1</v>
       </c>
       <c r="O18" s="5">
         <v>0</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
-        <v>36</v>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="5">
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>4</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2133,49 +2702,76 @@
         <v>35</v>
       </c>
       <c r="G19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" t="s">
         <v>74</v>
       </c>
-      <c r="H19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>35</v>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="9">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
       </c>
       <c r="O19" s="5">
         <v>0</v>
       </c>
-      <c r="P19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>36</v>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="5">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>4</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2195,49 +2791,76 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" t="s">
         <v>77</v>
       </c>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20">
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20">
         <v>5</v>
       </c>
-      <c r="J20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="9">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="5">
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
         <v>100</v>
       </c>
-      <c r="M20" s="5">
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="5">
         <v>40</v>
       </c>
-      <c r="N20" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20" s="5" t="s">
+      <c r="R20" s="6">
+        <v>2</v>
+      </c>
+      <c r="S20" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>39</v>
+      <c r="U20" s="5">
+        <v>3</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="5">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>4</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -2257,49 +2880,76 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" t="s">
         <v>77</v>
       </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" s="5">
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="9">
+        <v>5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
         <v>100</v>
       </c>
-      <c r="M21" s="5">
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="5">
         <v>40</v>
       </c>
-      <c r="N21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" s="5" t="s">
+      <c r="R21" s="6">
+        <v>2</v>
+      </c>
+      <c r="S21" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
-        <v>36</v>
+      <c r="U21" s="5">
+        <v>3</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" s="5">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>4</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2319,49 +2969,76 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" t="s">
         <v>77</v>
       </c>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22">
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22">
         <v>10</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" s="9">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="5">
+      <c r="M22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
         <v>100</v>
       </c>
-      <c r="M22" s="5">
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="5">
         <v>40</v>
       </c>
-      <c r="N22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O22" s="5" t="s">
+      <c r="R22" s="6">
+        <v>2</v>
+      </c>
+      <c r="S22" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S22" s="8">
+      <c r="U22" s="5">
+        <v>3</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" s="5">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z22" s="8">
         <v>6.67</v>
       </c>
-      <c r="T22" t="s">
+      <c r="AA22" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB22" t="s">
         <v>42</v>
       </c>
+      <c r="AC22">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2381,49 +3058,76 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="5">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="9">
+        <v>5</v>
+      </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5">
         <v>100</v>
       </c>
-      <c r="M23" s="5">
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="5">
         <v>40</v>
       </c>
-      <c r="N23" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23" t="s">
-        <v>36</v>
+      <c r="R23" s="6">
+        <v>2</v>
+      </c>
+      <c r="S23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U23" s="5">
+        <v>4</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>4</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -2444,51 +3148,78 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" s="5">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="9">
+        <v>5</v>
+      </c>
+      <c r="L24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5">
         <v>100</v>
       </c>
-      <c r="M24" s="5">
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="5">
         <f>30*60</f>
         <v>1800</v>
       </c>
-      <c r="N24" t="s">
-        <v>35</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S24" s="8">
+      <c r="R24" s="6">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" s="5">
+        <v>4</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24" s="5">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z24" s="8">
         <f>149.9/12</f>
         <v>12.491666666666667</v>
       </c>
-      <c r="T24" t="s">
+      <c r="AA24" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB24" t="s">
         <v>42</v>
       </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2509,51 +3240,78 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="5">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="9">
+        <v>5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5">
         <v>300</v>
       </c>
-      <c r="M25" s="5">
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="5">
         <f>30*60</f>
         <v>1800</v>
       </c>
-      <c r="N25" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S25" s="8">
+      <c r="R25" s="6">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U25" s="5">
+        <v>4</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W25" s="5">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z25" s="8">
         <f>199.9/12</f>
         <v>16.658333333333335</v>
       </c>
-      <c r="T25" t="s">
+      <c r="AA25" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="s">
         <v>42</v>
       </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -2573,49 +3331,76 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" t="s">
         <v>87</v>
       </c>
-      <c r="H26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26">
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26">
         <v>5</v>
       </c>
-      <c r="J26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L26" s="5">
-        <v>2</v>
-      </c>
-      <c r="M26" s="5">
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="5">
         <v>20</v>
       </c>
-      <c r="N26" t="s">
-        <v>35</v>
-      </c>
-      <c r="O26" s="5">
-        <v>0</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26" t="s">
-        <v>39</v>
+      <c r="R26" s="6">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s">
+        <v>35</v>
+      </c>
+      <c r="T26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="5">
+        <v>2</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>4</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -2635,49 +3420,76 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" t="s">
         <v>87</v>
       </c>
-      <c r="H27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="5">
+      <c r="I27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="9">
+        <v>5</v>
+      </c>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="5">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5">
         <v>20</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S27">
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R27" s="6">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U27" s="5">
+        <v>4</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W27" s="5">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z27">
         <v>4.5</v>
       </c>
-      <c r="T27" t="s">
+      <c r="AA27" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB27" t="s">
         <v>42</v>
       </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -2697,49 +3509,76 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" t="s">
         <v>90</v>
       </c>
-      <c r="H28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28">
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28">
         <v>5</v>
       </c>
-      <c r="J28" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28" s="5">
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" s="6">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="5">
         <v>500</v>
       </c>
-      <c r="P28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28" s="6">
+      <c r="U28" s="5">
+        <v>2</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" s="5">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="6">
         <v>500</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28" t="s">
-        <v>39</v>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>4</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2759,49 +3598,76 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" t="s">
         <v>90</v>
       </c>
-      <c r="H29" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>38</v>
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="9">
+        <v>5</v>
+      </c>
+      <c r="L29" t="s">
+        <v>36</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N29" t="s">
-        <v>35</v>
+      <c r="N29" s="5">
+        <v>1</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S29">
+      <c r="P29">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29" s="6">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U29" s="5">
+        <v>4</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" s="5">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z29">
         <v>6</v>
       </c>
-      <c r="T29" t="s">
+      <c r="AA29" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB29" t="s">
         <v>42</v>
       </c>
+      <c r="AC29">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -2821,49 +3687,76 @@
         <v>35</v>
       </c>
       <c r="G30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" t="s">
         <v>95</v>
       </c>
-      <c r="H30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K30" s="5" t="s">
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L30" s="5">
-        <v>0</v>
-      </c>
-      <c r="M30" s="5">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
-        <v>35</v>
+      <c r="N30" s="5">
+        <v>0</v>
       </c>
       <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>35</v>
+      </c>
+      <c r="T30" s="5">
         <v>10</v>
       </c>
-      <c r="P30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30" s="6">
+      <c r="U30" s="5">
+        <v>2</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W30" s="5">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="6">
         <v>500</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30" t="s">
-        <v>39</v>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>4</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -2883,49 +3776,76 @@
         <v>35</v>
       </c>
       <c r="G31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" t="s">
         <v>98</v>
       </c>
-      <c r="H31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L31" s="5">
+      <c r="I31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5">
         <v>100</v>
       </c>
-      <c r="M31" s="5">
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="5">
         <v>40</v>
       </c>
-      <c r="N31" t="s">
-        <v>35</v>
-      </c>
-      <c r="O31" s="5" t="s">
+      <c r="R31" s="6">
+        <v>2</v>
+      </c>
+      <c r="S31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="P31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S31">
+      <c r="U31" s="5">
+        <v>2</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W31" s="5">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z31">
         <v>5</v>
       </c>
-      <c r="T31" t="s">
+      <c r="AA31" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB31" t="s">
         <v>42</v>
       </c>
+      <c r="AC31">
+        <v>3</v>
+      </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -2945,49 +3865,76 @@
         <v>35</v>
       </c>
       <c r="G32" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" t="s">
         <v>100</v>
       </c>
-      <c r="H32" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="5">
+      <c r="I32" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="9">
+        <v>5</v>
+      </c>
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="5">
+        <v>1</v>
+      </c>
+      <c r="O32" s="5">
         <v>300</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N32" t="s">
-        <v>35</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S32">
+      <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R32" s="6">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U32" s="5">
+        <v>4</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W32" s="5">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z32">
         <v>9</v>
       </c>
-      <c r="T32" t="s">
+      <c r="AA32" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB32" t="s">
         <v>42</v>
       </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -3007,49 +3954,76 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
+        <v>155</v>
+      </c>
+      <c r="H33" t="s">
         <v>104</v>
       </c>
-      <c r="H33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33">
+      <c r="I33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33">
         <v>500</v>
       </c>
-      <c r="J33" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L33" s="5">
+      <c r="K33" s="9">
+        <v>2</v>
+      </c>
+      <c r="L33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+      <c r="O33" s="5">
         <v>100</v>
       </c>
-      <c r="M33" s="5">
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="5">
         <v>40</v>
       </c>
-      <c r="N33" t="s">
-        <v>35</v>
-      </c>
-      <c r="O33" s="5">
-        <v>0</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S33">
+      <c r="R33" s="6">
+        <v>2</v>
+      </c>
+      <c r="S33" t="s">
+        <v>35</v>
+      </c>
+      <c r="T33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" s="5">
+        <v>2</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z33">
         <v>15</v>
       </c>
-      <c r="T33" t="s">
-        <v>39</v>
+      <c r="AA33" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -3069,50 +4043,77 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" t="s">
         <v>104</v>
       </c>
-      <c r="H34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34">
+      <c r="I34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34">
         <f>5*1024</f>
         <v>5120</v>
       </c>
-      <c r="J34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L34" s="5">
+      <c r="K34" s="9">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="O34" s="5">
         <v>100</v>
       </c>
-      <c r="M34" s="5">
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="5">
         <v>40</v>
       </c>
-      <c r="N34" t="s">
-        <v>35</v>
-      </c>
-      <c r="O34" s="5">
-        <v>0</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34" t="s">
+      <c r="R34" s="6">
+        <v>2</v>
+      </c>
+      <c r="S34" t="s">
+        <v>35</v>
+      </c>
+      <c r="T34" s="5">
+        <v>0</v>
+      </c>
+      <c r="U34" s="5">
+        <v>0</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W34" s="5">
+        <v>2</v>
+      </c>
+      <c r="X34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>4</v>
+      </c>
+      <c r="AB34" t="s">
         <v>42</v>
       </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -3132,49 +4133,76 @@
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="H35" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35">
         <v>5</v>
       </c>
-      <c r="J35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="9">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L35" s="5">
-        <v>2</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N35" t="s">
-        <v>35</v>
+      <c r="N35" s="5">
+        <v>0</v>
       </c>
       <c r="O35" s="5">
-        <v>0</v>
-      </c>
-      <c r="P35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R35" s="6">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" s="5">
+        <v>0</v>
+      </c>
+      <c r="U35" s="5">
+        <v>0</v>
+      </c>
+      <c r="V35" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35" s="6">
+      <c r="W35" s="5">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="6">
         <v>100</v>
       </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35" t="s">
-        <v>39</v>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>4</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC35">
+        <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -3194,49 +4222,76 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" t="s">
         <v>110</v>
       </c>
-      <c r="H36" t="s">
-        <v>35</v>
-      </c>
       <c r="I36" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" t="s">
         <v>41</v>
       </c>
-      <c r="J36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>38</v>
+      <c r="K36" s="9">
+        <v>3</v>
+      </c>
+      <c r="L36" t="s">
+        <v>36</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N36" t="s">
-        <v>35</v>
-      </c>
-      <c r="O36" s="5">
-        <v>0</v>
-      </c>
-      <c r="P36" s="5" t="s">
+      <c r="N36" s="5">
+        <v>1</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R36" s="6">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s">
+        <v>35</v>
+      </c>
+      <c r="T36" s="5">
+        <v>0</v>
+      </c>
+      <c r="U36" s="5">
+        <v>0</v>
+      </c>
+      <c r="V36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S36">
+      <c r="W36" s="5">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z36">
         <v>5</v>
       </c>
-      <c r="T36" t="s">
+      <c r="AA36" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB36" t="s">
         <v>42</v>
       </c>
+      <c r="AC36">
+        <v>3</v>
+      </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -3256,49 +4311,76 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37" t="s">
         <v>113</v>
       </c>
-      <c r="H37" t="s">
-        <v>35</v>
-      </c>
       <c r="I37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" t="s">
         <v>114</v>
       </c>
-      <c r="J37" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L37" s="5">
-        <v>4</v>
+      <c r="K37" s="9">
+        <v>3</v>
+      </c>
+      <c r="L37" t="s">
+        <v>36</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N37" t="s">
-        <v>35</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37" t="s">
-        <v>39</v>
+      <c r="N37" s="5">
+        <v>1</v>
+      </c>
+      <c r="O37" s="5">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R37" s="6">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U37" s="5">
+        <v>4</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W37" s="5">
+        <v>2</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>4</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC37">
+        <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -3318,49 +4400,76 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" t="s">
         <v>113</v>
       </c>
-      <c r="H38" t="s">
-        <v>35</v>
-      </c>
       <c r="I38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" t="s">
         <v>115</v>
       </c>
-      <c r="J38" t="s">
-        <v>36</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L38" s="5">
-        <v>4</v>
+      <c r="K38" s="9">
+        <v>4</v>
+      </c>
+      <c r="L38" t="s">
+        <v>36</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N38" t="s">
-        <v>35</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S38">
+      <c r="N38" s="5">
+        <v>1</v>
+      </c>
+      <c r="O38" s="5">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R38" s="6">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s">
+        <v>35</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U38" s="5">
+        <v>4</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38" s="5">
+        <v>2</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z38">
         <v>5</v>
       </c>
-      <c r="T38" t="s">
-        <v>39</v>
+      <c r="AA38" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC38">
+        <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -3380,49 +4489,76 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" t="s">
         <v>118</v>
       </c>
-      <c r="H39" t="s">
-        <v>35</v>
-      </c>
-      <c r="I39">
+      <c r="I39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39">
         <v>100</v>
       </c>
-      <c r="J39" t="s">
-        <v>36</v>
-      </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="9">
+        <v>2</v>
+      </c>
+      <c r="L39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L39" s="5">
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
         <v>100</v>
       </c>
-      <c r="M39" s="5">
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="5">
         <v>60</v>
       </c>
-      <c r="N39" t="s">
-        <v>35</v>
-      </c>
-      <c r="O39" s="5">
-        <v>0</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="R39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S39" s="6">
-        <v>0</v>
-      </c>
-      <c r="T39" t="s">
-        <v>39</v>
+      <c r="R39" s="6">
+        <v>2</v>
+      </c>
+      <c r="S39" t="s">
+        <v>35</v>
+      </c>
+      <c r="T39" s="5">
+        <v>0</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W39" s="5">
+        <v>2</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>4</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC39">
+        <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -3442,50 +4578,77 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" t="s">
         <v>118</v>
       </c>
-      <c r="H40" t="s">
-        <v>35</v>
-      </c>
       <c r="I40" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" t="s">
         <v>115</v>
       </c>
-      <c r="J40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L40" s="5">
+      <c r="K40" s="9">
+        <v>4</v>
+      </c>
+      <c r="L40" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40" s="5">
+        <v>1</v>
+      </c>
+      <c r="O40" s="5">
         <v>1000</v>
       </c>
-      <c r="M40" s="5">
+      <c r="P40">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="5">
         <f>24*60</f>
         <v>1440</v>
       </c>
-      <c r="N40" t="s">
-        <v>35</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S40" s="6" t="s">
+      <c r="R40" s="6">
+        <v>3</v>
+      </c>
+      <c r="S40" t="s">
+        <v>35</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U40" s="5">
+        <v>4</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W40" s="5">
+        <v>2</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z40" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="T40" t="s">
-        <v>39</v>
+      <c r="AA40" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC40">
+        <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -3505,49 +4668,76 @@
         <v>35</v>
       </c>
       <c r="G41" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41" t="s">
         <v>122</v>
       </c>
-      <c r="H41" t="s">
-        <v>35</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" t="s">
-        <v>36</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L41" s="5">
+      <c r="I41" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" s="9">
+        <v>5</v>
+      </c>
+      <c r="L41" t="s">
+        <v>36</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1</v>
+      </c>
+      <c r="O41" s="5">
         <v>100</v>
       </c>
-      <c r="M41" s="5">
+      <c r="P41">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="5">
         <v>40</v>
       </c>
-      <c r="N41" t="s">
-        <v>35</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41" t="s">
-        <v>36</v>
+      <c r="R41" s="6">
+        <v>2</v>
+      </c>
+      <c r="S41" t="s">
+        <v>35</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U41" s="5">
+        <v>4</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W41" s="5">
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>4</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -3567,50 +4757,77 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" t="s">
         <v>122</v>
       </c>
-      <c r="H42" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" t="s">
-        <v>36</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L42" s="5">
+      <c r="I42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="9">
+        <v>5</v>
+      </c>
+      <c r="L42" t="s">
+        <v>36</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N42" s="5">
+        <v>1</v>
+      </c>
+      <c r="O42" s="5">
         <v>200</v>
       </c>
-      <c r="M42" s="5">
+      <c r="P42">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="5">
         <f>24*60</f>
         <v>1440</v>
       </c>
-      <c r="N42" t="s">
-        <v>35</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-      <c r="R42" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S42">
+      <c r="R42" s="6">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s">
+        <v>35</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U42" s="5">
+        <v>4</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W42" s="5">
+        <v>2</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z42">
         <v>12</v>
       </c>
-      <c r="T42" t="s">
+      <c r="AA42" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB42" t="s">
         <v>42</v>
       </c>
+      <c r="AC42">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -3631,49 +4848,76 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" t="s">
         <v>127</v>
       </c>
-      <c r="H43" t="s">
-        <v>35</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" t="s">
-        <v>36</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L43" s="5">
+      <c r="I43" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K43" s="9">
         <v>5</v>
       </c>
+      <c r="L43" t="s">
+        <v>36</v>
+      </c>
       <c r="M43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N43" t="s">
-        <v>35</v>
-      </c>
-      <c r="O43" s="5" t="s">
+      <c r="N43" s="5">
+        <v>1</v>
+      </c>
+      <c r="O43" s="5">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R43" s="6">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s">
+        <v>35</v>
+      </c>
+      <c r="T43" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="U43" s="5">
+        <v>2</v>
+      </c>
+      <c r="V43" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="Q43">
+      <c r="W43" s="5">
+        <v>1</v>
+      </c>
+      <c r="X43">
         <v>12</v>
       </c>
-      <c r="R43">
+      <c r="Y43">
         <v>12</v>
       </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43" t="s">
-        <v>39</v>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC43">
+        <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -3694,49 +4938,76 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" t="s">
         <v>130</v>
       </c>
-      <c r="H44" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" t="s">
-        <v>36</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L44" s="5">
+      <c r="I44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="9">
         <v>5</v>
       </c>
+      <c r="L44" t="s">
+        <v>36</v>
+      </c>
       <c r="M44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N44" t="s">
-        <v>35</v>
-      </c>
-      <c r="O44" s="5" t="s">
+      <c r="N44" s="5">
+        <v>1</v>
+      </c>
+      <c r="O44" s="5">
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R44" s="6">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s">
+        <v>35</v>
+      </c>
+      <c r="T44" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="U44" s="5">
+        <v>2</v>
+      </c>
+      <c r="V44" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="Q44">
+      <c r="W44" s="5">
+        <v>1</v>
+      </c>
+      <c r="X44">
         <v>30</v>
       </c>
-      <c r="R44">
+      <c r="Y44">
         <v>30</v>
       </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44" t="s">
-        <v>39</v>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>2</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC44">
+        <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -3756,49 +5027,76 @@
         <v>35</v>
       </c>
       <c r="G45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" t="s">
         <v>133</v>
       </c>
-      <c r="H45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J45" t="s">
-        <v>36</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L45" s="5">
+      <c r="I45" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" s="9">
         <v>5</v>
       </c>
+      <c r="L45" t="s">
+        <v>36</v>
+      </c>
       <c r="M45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N45" t="s">
-        <v>35</v>
+      <c r="N45" s="5">
+        <v>1</v>
       </c>
       <c r="O45" s="5">
-        <v>0</v>
-      </c>
-      <c r="P45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R45" s="6">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s">
+        <v>35</v>
+      </c>
+      <c r="T45" s="5">
+        <v>0</v>
+      </c>
+      <c r="U45" s="5">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S45">
-        <v>4</v>
-      </c>
-      <c r="T45" t="s">
+      <c r="W45" s="5">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z45">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB45" t="s">
         <v>42</v>
       </c>
+      <c r="AC45">
+        <v>3</v>
+      </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -3818,49 +5116,76 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" t="s">
         <v>136</v>
       </c>
-      <c r="H46" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46">
+      <c r="I46" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46">
         <v>6</v>
       </c>
-      <c r="J46" t="s">
-        <v>36</v>
-      </c>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="9">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L46" s="5">
+      <c r="N46" s="5">
+        <v>0</v>
+      </c>
+      <c r="O46" s="5">
         <v>75</v>
       </c>
-      <c r="M46" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N46" t="s">
-        <v>35</v>
-      </c>
-      <c r="O46" s="5">
-        <v>0</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46" t="s">
-        <v>39</v>
+      <c r="P46">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R46" s="6">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s">
+        <v>35</v>
+      </c>
+      <c r="T46" s="5">
+        <v>0</v>
+      </c>
+      <c r="U46" s="5">
+        <v>0</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W46" s="5">
+        <v>2</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>4</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC46">
+        <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -3880,49 +5205,76 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
+        <v>155</v>
+      </c>
+      <c r="H47" t="s">
         <v>138</v>
       </c>
-      <c r="H47" t="s">
-        <v>35</v>
-      </c>
       <c r="I47" t="s">
+        <v>35</v>
+      </c>
+      <c r="J47" t="s">
         <v>139</v>
       </c>
-      <c r="J47" t="s">
-        <v>36</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L47" s="5">
+      <c r="K47" s="9">
+        <v>2</v>
+      </c>
+      <c r="L47" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" s="5">
+        <v>1</v>
+      </c>
+      <c r="O47" s="5">
         <v>75</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N47" t="s">
-        <v>35</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S47" s="6" t="s">
+      <c r="P47">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R47" s="6">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s">
+        <v>35</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U47" s="5">
+        <v>4</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W47" s="5">
+        <v>2</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z47" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="T47" t="s">
+      <c r="AA47" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB47" t="s">
         <v>42</v>
       </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>134</v>
       </c>
@@ -3942,46 +5294,73 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" t="s">
         <v>141</v>
       </c>
-      <c r="H48" t="s">
-        <v>35</v>
-      </c>
       <c r="I48" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" t="s">
         <v>142</v>
       </c>
-      <c r="J48" t="s">
-        <v>36</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L48" s="5">
+      <c r="K48" s="9">
+        <v>3</v>
+      </c>
+      <c r="L48" t="s">
+        <v>36</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" s="5">
+        <v>1</v>
+      </c>
+      <c r="O48" s="5">
         <v>75</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N48" t="s">
-        <v>35</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S48" s="6" t="s">
+      <c r="P48">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R48" s="6">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s">
+        <v>35</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U48" s="5">
+        <v>4</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W48" s="5">
+        <v>2</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z48" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="T48" t="s">
+      <c r="AA48" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB48" t="s">
         <v>42</v>
+      </c>
+      <c r="AC48">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/lib/excels/Chat_Comps.xlsx
+++ b/src/lib/excels/Chat_Comps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E1BA35-6FAE-6048-93B9-2FC9CC692815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA59C1D-DC64-6F40-A7F5-A0585335C849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{BE838AFB-F090-D047-870C-20BD80558B3B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="166">
   <si>
     <t>Brand</t>
   </si>
@@ -523,6 +523,12 @@
   </si>
   <si>
     <t>Commercial Support MCDM</t>
+  </si>
+  <si>
+    <t>mcdm_ExtrasIncluded</t>
+  </si>
+  <si>
+    <t>Extras Included MCDM</t>
   </si>
 </sst>
 </file>
@@ -713,9 +719,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DCEA6F5-3E96-AE4F-AF0B-55752F670CDE}" name="Table1" displayName="Table1" ref="A1:AC48" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A1:AC48" xr:uid="{7DCEA6F5-3E96-AE4F-AF0B-55752F670CDE}"/>
-  <tableColumns count="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DCEA6F5-3E96-AE4F-AF0B-55752F670CDE}" name="Table1" displayName="Table1" ref="A1:AD48" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A1:AD48" xr:uid="{7DCEA6F5-3E96-AE4F-AF0B-55752F670CDE}"/>
+  <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{A268BA83-06B6-5A43-8145-1D59E5B64840}" name="Brand"/>
     <tableColumn id="2" xr3:uid="{EE29F376-FBC4-3A47-8903-BA77875AF990}" name="Service"/>
     <tableColumn id="3" xr3:uid="{A7BDED9B-D1BD-8A48-98A7-51AAC1C9CAC3}" name="desc_Service"/>
@@ -724,6 +730,7 @@
     <tableColumn id="6" xr3:uid="{3F8629B0-D393-7D43-8988-AE1A856A4D8B}" name="CalculatedCost"/>
     <tableColumn id="29" xr3:uid="{47EC2701-5A40-7541-803B-3158ED32F64D}" name="mcdm_Rank"/>
     <tableColumn id="7" xr3:uid="{19B90D66-46F8-A44C-B6D4-BC4B6FA053CA}" name="ExtrasIncluded"/>
+    <tableColumn id="30" xr3:uid="{12DB7091-AFFB-744F-B325-A2B1072A6217}" name="mcdm_ExtrasIncluded"/>
     <tableColumn id="21" xr3:uid="{06B46DFC-AA79-4121-A9A8-62D0AC165417}" name="ChatFilesGBFinal"/>
     <tableColumn id="13" xr3:uid="{DE2CD0C5-D101-490C-A75D-7A4A04898265}" name="ChatFilesFormulaGB"/>
     <tableColumn id="19" xr3:uid="{9BFCCC98-34E2-D44E-856E-063A237B15F3}" name="mcdm_ChatFiles"/>
@@ -1047,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81538D67-8855-E345-AEC8-B1C8AC99A1CC}">
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AD48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1062,21 +1069,21 @@
     <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" customWidth="1"/>
-    <col min="10" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
-    <col min="15" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" customWidth="1"/>
-    <col min="20" max="21" width="13.6640625" customWidth="1"/>
-    <col min="22" max="23" width="12.83203125" customWidth="1"/>
-    <col min="24" max="24" width="9.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" customWidth="1"/>
+    <col min="11" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="16" max="17" width="13.5" customWidth="1"/>
+    <col min="18" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" customWidth="1"/>
+    <col min="21" max="22" width="13.6640625" customWidth="1"/>
+    <col min="23" max="24" width="12.83203125" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,70 +1109,73 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>147</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>149</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1188,70 +1198,73 @@
         <v>21</v>
       </c>
       <c r="I2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>156</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>157</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>143</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>159</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>26</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>27</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>160</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>15</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>161</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1276,71 +1289,74 @@
       <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3">
         <v>5</v>
       </c>
-      <c r="K3" s="9">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
       <c r="O3" s="5">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="6">
-        <v>4</v>
-      </c>
-      <c r="S3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="6">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s">
+        <v>35</v>
       </c>
       <c r="U3" s="5">
         <v>1</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="5">
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
+      <c r="V3" s="5">
+        <v>1</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA3">
-        <v>4</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>4</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1365,71 +1381,74 @@
       <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
-        <v>35</v>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="9">
-        <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="5">
-        <v>1</v>
+      <c r="L4" s="9">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
         <v>50</v>
       </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="6">
-        <v>4</v>
-      </c>
-      <c r="S4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="5">
-        <v>4</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="5">
-        <v>2</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="8">
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="6">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="5">
+        <v>4</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" s="8">
         <v>6.75</v>
       </c>
-      <c r="AA4" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC4" t="s">
         <v>42</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1454,71 +1473,74 @@
       <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
-        <v>35</v>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="9">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1</v>
+      <c r="L5" s="9">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5">
         <v>50</v>
       </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="6">
-        <v>4</v>
-      </c>
-      <c r="S5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="5">
-        <v>4</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="5">
-        <v>2</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="8">
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="6">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="5">
+        <v>4</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="8">
         <v>11.75</v>
       </c>
-      <c r="AA5" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC5" t="s">
         <v>42</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1543,71 +1565,74 @@
       <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
-        <v>35</v>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="9">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
+      <c r="L6" s="9">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O6" s="5">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5">
         <v>100</v>
       </c>
-      <c r="P6">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="5">
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6" s="5">
         <v>60</v>
       </c>
-      <c r="R6" s="6">
-        <v>2</v>
-      </c>
-      <c r="S6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
+      <c r="S6" s="6">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>35</v>
       </c>
       <c r="U6" s="5">
         <v>0</v>
       </c>
-      <c r="V6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA6">
-        <v>4</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1632,72 +1657,75 @@
       <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
-        <v>35</v>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="9">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1</v>
+      <c r="L7" s="9">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O7" s="5">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5">
         <v>300</v>
       </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7" s="5">
         <f>30*60</f>
         <v>1800</v>
       </c>
-      <c r="R7" s="6">
-        <v>3</v>
-      </c>
-      <c r="S7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="5">
-        <v>0</v>
+      <c r="S7" s="6">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
       </c>
       <c r="U7" s="5">
         <v>0</v>
       </c>
-      <c r="V7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z7">
-        <v>4</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC7">
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA7">
+        <v>4</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1722,72 +1750,75 @@
       <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="I8" t="s">
-        <v>35</v>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="9">
-        <v>4</v>
-      </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="5">
-        <v>1</v>
+      <c r="L8" s="9">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
         <v>300</v>
       </c>
-      <c r="P8">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="5">
-        <f t="shared" ref="Q8:Q9" si="0">30*60</f>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" ref="R8:R9" si="0">30*60</f>
         <v>1800</v>
       </c>
-      <c r="R8" s="6">
-        <v>3</v>
-      </c>
-      <c r="S8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="5">
-        <v>4</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="5">
-        <v>2</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z8">
+      <c r="S8" s="6">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" s="5">
+        <v>4</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA8">
         <v>6</v>
       </c>
-      <c r="AA8" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AB8" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC8" t="s">
         <v>42</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1812,72 +1843,75 @@
       <c r="H9" t="s">
         <v>52</v>
       </c>
-      <c r="I9" t="s">
-        <v>35</v>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="9">
-        <v>4</v>
-      </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
+      <c r="L9" s="9">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
         <v>300</v>
       </c>
-      <c r="P9">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="5">
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9" s="5">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="R9" s="6">
-        <v>3</v>
-      </c>
-      <c r="S9" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="5">
-        <v>4</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="5">
-        <v>2</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z9">
+      <c r="S9" s="6">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="5">
+        <v>4</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA9">
         <v>12.5</v>
       </c>
-      <c r="AA9" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC9" t="s">
         <v>42</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -1903,71 +1937,74 @@
       <c r="H10" t="s">
         <v>36</v>
       </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="9">
         <v>5</v>
       </c>
-      <c r="L10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10">
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10">
         <v>5</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="6">
-        <v>4</v>
-      </c>
-      <c r="S10" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="5">
-        <v>4</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W10" s="5">
-        <v>2</v>
-      </c>
-      <c r="X10">
+      <c r="R10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="6">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" s="5">
+        <v>4</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y10">
         <v>5</v>
       </c>
-      <c r="Y10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z10">
-        <v>3</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="Z10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA10">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC10" t="s">
         <v>42</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1993,71 +2030,74 @@
       <c r="H11" t="s">
         <v>36</v>
       </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="9">
         <v>5</v>
       </c>
-      <c r="L11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11">
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11">
         <v>5</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="6">
-        <v>4</v>
-      </c>
-      <c r="S11" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U11" s="5">
-        <v>4</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" s="5">
-        <v>2</v>
-      </c>
-      <c r="X11">
+      <c r="R11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="6">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="5">
+        <v>4</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y11">
         <v>25</v>
       </c>
-      <c r="Y11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z11">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="Z11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC11" t="s">
         <v>42</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -2083,71 +2123,74 @@
       <c r="H12" t="s">
         <v>36</v>
       </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="9">
         <v>5</v>
       </c>
-      <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" s="5">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12">
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12">
         <v>5</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R12" s="6">
-        <v>4</v>
-      </c>
-      <c r="S12" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U12" s="5">
-        <v>4</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" s="5">
-        <v>2</v>
-      </c>
-      <c r="X12">
+      <c r="R12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="6">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" s="5">
+        <v>4</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y12">
         <v>250</v>
       </c>
-      <c r="Y12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z12">
-        <v>3</v>
+      <c r="Z12" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA12">
-        <v>4</v>
-      </c>
-      <c r="AB12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>4</v>
+      </c>
+      <c r="AC12" t="s">
         <v>42</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2173,71 +2216,74 @@
       <c r="H13" t="s">
         <v>36</v>
       </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="9">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="9">
         <v>5</v>
       </c>
-      <c r="L13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="5">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13">
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13">
         <v>5</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R13" s="6">
-        <v>4</v>
-      </c>
-      <c r="S13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U13" s="5">
-        <v>4</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W13" s="5">
-        <v>2</v>
-      </c>
-      <c r="X13">
+      <c r="R13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="6">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" s="5">
+        <v>4</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y13">
         <v>250</v>
       </c>
-      <c r="Y13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z13">
-        <v>4</v>
+      <c r="Z13" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA13">
         <v>4</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AB13">
+        <v>4</v>
+      </c>
+      <c r="AC13" t="s">
         <v>42</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -2262,71 +2308,74 @@
       <c r="H14" t="s">
         <v>63</v>
       </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="5" t="s">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
       <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
         <v>8</v>
       </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="6">
-        <v>4</v>
-      </c>
-      <c r="S14" t="s">
-        <v>35</v>
-      </c>
-      <c r="T14" s="5">
-        <v>0</v>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="6">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s">
+        <v>35</v>
       </c>
       <c r="U14" s="5">
         <v>0</v>
       </c>
-      <c r="V14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W14" s="5">
-        <v>2</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA14">
-        <v>4</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2351,71 +2400,74 @@
       <c r="H15" t="s">
         <v>63</v>
       </c>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="9">
         <v>5</v>
       </c>
-      <c r="L15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15">
+      <c r="M15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15">
         <v>5</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" s="6">
-        <v>4</v>
-      </c>
-      <c r="S15" t="s">
-        <v>35</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0</v>
+      <c r="R15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="6">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s">
+        <v>35</v>
       </c>
       <c r="U15" s="5">
         <v>0</v>
       </c>
-      <c r="V15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W15" s="5">
-        <v>2</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA15">
-        <v>4</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>4</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -2440,71 +2492,74 @@
       <c r="H16" t="s">
         <v>63</v>
       </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
         <v>250</v>
       </c>
-      <c r="K16" s="9">
-        <v>2</v>
-      </c>
-      <c r="L16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="5">
-        <v>1</v>
+      <c r="L16" s="9">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5">
         <v>200</v>
       </c>
-      <c r="P16">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R16" s="6">
-        <v>4</v>
-      </c>
-      <c r="S16" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U16" s="5">
-        <v>4</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W16" s="5">
-        <v>2</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z16">
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="6">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" s="5">
+        <v>4</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA16">
         <v>10</v>
       </c>
-      <c r="AA16" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB16" t="s">
+      <c r="AB16" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC16" t="s">
         <v>42</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -2529,71 +2584,74 @@
       <c r="H17" t="s">
         <v>63</v>
       </c>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="9">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="9">
         <v>5</v>
       </c>
-      <c r="L17" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="5">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17">
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17">
         <v>5</v>
       </c>
-      <c r="Q17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" s="6">
-        <v>4</v>
-      </c>
-      <c r="S17" t="s">
-        <v>35</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U17" s="5">
-        <v>4</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W17" s="5">
-        <v>2</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z17">
+      <c r="R17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="6">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V17" s="5">
+        <v>4</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA17">
         <v>10</v>
       </c>
-      <c r="AA17" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="AB17" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC17" t="s">
         <v>42</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -2618,71 +2676,74 @@
       <c r="H18" t="s">
         <v>71</v>
       </c>
-      <c r="I18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="9">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="9">
         <v>5</v>
       </c>
-      <c r="L18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="5">
-        <v>1</v>
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>35</v>
-      </c>
-      <c r="T18" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>35</v>
       </c>
       <c r="U18" s="5">
         <v>0</v>
       </c>
-      <c r="V18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="5">
-        <v>2</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA18">
-        <v>4</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>4</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2707,71 +2768,74 @@
       <c r="H19" t="s">
         <v>74</v>
       </c>
-      <c r="I19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="9">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="9">
         <v>5</v>
       </c>
-      <c r="L19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1</v>
+      <c r="M19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>35</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>35</v>
       </c>
       <c r="U19" s="5">
         <v>0</v>
       </c>
-      <c r="V19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W19" s="5">
-        <v>2</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA19">
-        <v>4</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>4</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2796,71 +2860,74 @@
       <c r="H20" t="s">
         <v>77</v>
       </c>
-      <c r="I20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20">
         <v>5</v>
       </c>
-      <c r="K20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="5" t="s">
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
       <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
         <v>100</v>
       </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="5">
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20" s="5">
         <v>40</v>
       </c>
-      <c r="R20" s="6">
-        <v>2</v>
-      </c>
-      <c r="S20" t="s">
-        <v>35</v>
-      </c>
-      <c r="T20" s="5" t="s">
+      <c r="S20" s="6">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U20" s="5">
-        <v>3</v>
-      </c>
-      <c r="V20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" s="5">
-        <v>2</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
+      <c r="V20" s="5">
+        <v>3</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA20">
-        <v>4</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -2885,71 +2952,74 @@
       <c r="H21" t="s">
         <v>77</v>
       </c>
-      <c r="I21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="9">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="9">
         <v>5</v>
       </c>
-      <c r="L21" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" s="5">
-        <v>1</v>
+      <c r="M21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O21" s="5">
+        <v>1</v>
+      </c>
+      <c r="P21" s="5">
         <v>100</v>
       </c>
-      <c r="P21">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="5">
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21" s="5">
         <v>40</v>
       </c>
-      <c r="R21" s="6">
-        <v>2</v>
-      </c>
-      <c r="S21" t="s">
-        <v>35</v>
-      </c>
-      <c r="T21" s="5" t="s">
+      <c r="S21" s="6">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U21" s="5">
-        <v>3</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W21" s="5">
-        <v>2</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
+      <c r="V21" s="5">
+        <v>3</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA21">
-        <v>4</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>4</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2974,71 +3044,74 @@
       <c r="H22" t="s">
         <v>77</v>
       </c>
-      <c r="I22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22">
         <v>10</v>
       </c>
-      <c r="K22" s="9">
-        <v>2</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="L22" s="9">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
         <v>80</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" s="5">
-        <v>1</v>
+      <c r="N22" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O22" s="5">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5">
         <v>100</v>
       </c>
-      <c r="P22">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="5">
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22" s="5">
         <v>40</v>
       </c>
-      <c r="R22" s="6">
-        <v>2</v>
-      </c>
-      <c r="S22" t="s">
-        <v>35</v>
-      </c>
-      <c r="T22" s="5" t="s">
+      <c r="S22" s="6">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U22" s="5">
-        <v>3</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W22" s="5">
-        <v>2</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z22" s="8">
+      <c r="V22" s="5">
+        <v>3</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA22" s="8">
         <v>6.67</v>
       </c>
-      <c r="AA22" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="AB22" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC22" t="s">
         <v>42</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -3063,71 +3136,74 @@
       <c r="H23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="9">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="9">
         <v>5</v>
       </c>
-      <c r="L23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="5">
-        <v>1</v>
+      <c r="M23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O23" s="5">
+        <v>1</v>
+      </c>
+      <c r="P23" s="5">
         <v>100</v>
       </c>
-      <c r="P23">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="5">
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23" s="5">
         <v>40</v>
       </c>
-      <c r="R23" s="6">
-        <v>2</v>
-      </c>
-      <c r="S23" t="s">
-        <v>35</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U23" s="5">
-        <v>4</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="W23" s="5">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
+      <c r="S23" s="6">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s">
+        <v>35</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" s="5">
+        <v>4</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA23">
-        <v>4</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>4</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3153,73 +3229,76 @@
       <c r="H24" t="s">
         <v>36</v>
       </c>
-      <c r="I24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" s="9">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="9">
         <v>5</v>
       </c>
-      <c r="L24" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="5">
-        <v>1</v>
+      <c r="M24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O24" s="5">
+        <v>1</v>
+      </c>
+      <c r="P24" s="5">
         <v>100</v>
       </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="5">
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24" s="5">
         <f>30*60</f>
         <v>1800</v>
       </c>
-      <c r="R24" s="6">
-        <v>3</v>
-      </c>
-      <c r="S24" t="s">
-        <v>35</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U24" s="5">
-        <v>4</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W24" s="5">
-        <v>2</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z24" s="8">
+      <c r="S24" s="6">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s">
+        <v>35</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V24" s="5">
+        <v>4</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X24" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA24" s="8">
         <f>149.9/12</f>
         <v>12.491666666666667</v>
       </c>
-      <c r="AA24" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB24" t="s">
+      <c r="AB24" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC24" t="s">
         <v>42</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -3245,73 +3324,76 @@
       <c r="H25" t="s">
         <v>36</v>
       </c>
-      <c r="I25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" s="9">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="9">
         <v>5</v>
       </c>
-      <c r="L25" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="5">
-        <v>1</v>
+      <c r="M25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O25" s="5">
+        <v>1</v>
+      </c>
+      <c r="P25" s="5">
         <v>300</v>
       </c>
-      <c r="P25">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="5">
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25" s="5">
         <f>30*60</f>
         <v>1800</v>
       </c>
-      <c r="R25" s="6">
-        <v>3</v>
-      </c>
-      <c r="S25" t="s">
-        <v>35</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U25" s="5">
-        <v>4</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W25" s="5">
-        <v>2</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z25" s="8">
+      <c r="S25" s="6">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s">
+        <v>35</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V25" s="5">
+        <v>4</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X25" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA25" s="8">
         <f>199.9/12</f>
         <v>16.658333333333335</v>
       </c>
-      <c r="AA25" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB25" t="s">
+      <c r="AB25" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC25" t="s">
         <v>42</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3336,71 +3418,74 @@
       <c r="H26" t="s">
         <v>87</v>
       </c>
-      <c r="I26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26">
         <v>5</v>
       </c>
-      <c r="K26" s="9">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="5" t="s">
+      <c r="L26" s="9">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="5">
-        <v>0</v>
-      </c>
       <c r="O26" s="5">
-        <v>2</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26" s="5">
         <v>20</v>
       </c>
-      <c r="R26" s="6">
-        <v>1</v>
-      </c>
-      <c r="S26" t="s">
-        <v>35</v>
-      </c>
-      <c r="T26" s="5">
-        <v>0</v>
+      <c r="S26" s="6">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>35</v>
       </c>
       <c r="U26" s="5">
         <v>0</v>
       </c>
-      <c r="V26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W26" s="5">
-        <v>2</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
+      <c r="V26" s="5">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA26">
-        <v>4</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>4</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -3425,71 +3510,74 @@
       <c r="H27" t="s">
         <v>87</v>
       </c>
-      <c r="I27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="9">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="9">
         <v>5</v>
       </c>
-      <c r="L27" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" s="5">
-        <v>1</v>
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O27" s="5">
+        <v>1</v>
+      </c>
+      <c r="P27" s="5">
         <v>20</v>
       </c>
-      <c r="P27">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R27" s="6">
-        <v>4</v>
-      </c>
-      <c r="S27" t="s">
-        <v>35</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U27" s="5">
-        <v>4</v>
-      </c>
-      <c r="V27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W27" s="5">
-        <v>2</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z27">
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S27" s="6">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V27" s="5">
+        <v>4</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA27">
         <v>4.5</v>
       </c>
-      <c r="AA27" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB27" t="s">
+      <c r="AB27" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC27" t="s">
         <v>42</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -3514,71 +3602,74 @@
       <c r="H28" t="s">
         <v>90</v>
       </c>
-      <c r="I28" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28">
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28">
         <v>5</v>
       </c>
-      <c r="K28" s="9">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" s="5" t="s">
+      <c r="L28" s="9">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N28" s="5">
-        <v>0</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P28">
+      <c r="O28" s="5">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28">
         <v>5</v>
       </c>
-      <c r="Q28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R28" s="6">
-        <v>4</v>
-      </c>
-      <c r="S28" t="s">
-        <v>35</v>
-      </c>
-      <c r="T28" s="5">
+      <c r="R28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S28" s="6">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s">
+        <v>35</v>
+      </c>
+      <c r="U28" s="5">
         <v>500</v>
       </c>
-      <c r="U28" s="5">
-        <v>2</v>
-      </c>
-      <c r="V28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W28" s="5">
-        <v>2</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="6">
+      <c r="V28" s="5">
+        <v>2</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X28" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="6">
         <v>500</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
       <c r="AA28">
-        <v>4</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>4</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -3603,71 +3694,74 @@
       <c r="H29" t="s">
         <v>90</v>
       </c>
-      <c r="I29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" s="9">
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="9">
         <v>5</v>
       </c>
-      <c r="L29" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P29">
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="5">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29">
         <v>5</v>
       </c>
-      <c r="Q29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R29" s="6">
-        <v>4</v>
-      </c>
-      <c r="S29" t="s">
-        <v>35</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U29" s="5">
-        <v>4</v>
-      </c>
-      <c r="V29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W29" s="5">
-        <v>2</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z29">
+      <c r="R29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S29" s="6">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s">
+        <v>35</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V29" s="5">
+        <v>4</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X29" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA29">
         <v>6</v>
       </c>
-      <c r="AA29" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB29" t="s">
+      <c r="AB29" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC29" t="s">
         <v>42</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -3692,71 +3786,74 @@
       <c r="H30" t="s">
         <v>95</v>
       </c>
-      <c r="I30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="5" t="s">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N30" s="5">
-        <v>0</v>
-      </c>
       <c r="O30" s="5">
         <v>0</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>0</v>
-      </c>
-      <c r="R30" s="6">
-        <v>0</v>
-      </c>
-      <c r="S30" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30" s="5">
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>35</v>
+      </c>
+      <c r="U30" s="5">
         <v>10</v>
       </c>
-      <c r="U30" s="5">
-        <v>2</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W30" s="5">
-        <v>2</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="6">
+      <c r="V30" s="5">
+        <v>2</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X30" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="6">
         <v>500</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
       <c r="AA30">
-        <v>4</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>4</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -3781,71 +3878,74 @@
       <c r="H31" t="s">
         <v>98</v>
       </c>
-      <c r="I31" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>36</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N31" s="5">
-        <v>1</v>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O31" s="5">
+        <v>1</v>
+      </c>
+      <c r="P31" s="5">
         <v>100</v>
       </c>
-      <c r="P31">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="5">
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31" s="5">
         <v>40</v>
       </c>
-      <c r="R31" s="6">
-        <v>2</v>
-      </c>
-      <c r="S31" t="s">
-        <v>35</v>
-      </c>
-      <c r="T31" s="5" t="s">
+      <c r="S31" s="6">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s">
+        <v>35</v>
+      </c>
+      <c r="U31" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="U31" s="5">
-        <v>2</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W31" s="5">
-        <v>2</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z31">
+      <c r="V31" s="5">
+        <v>2</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X31" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA31">
         <v>5</v>
       </c>
-      <c r="AA31" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB31" t="s">
+      <c r="AB31" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC31" t="s">
         <v>42</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -3870,71 +3970,74 @@
       <c r="H32" t="s">
         <v>100</v>
       </c>
-      <c r="I32" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="9">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="9">
         <v>5</v>
       </c>
-      <c r="L32" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N32" s="5">
-        <v>1</v>
+      <c r="M32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O32" s="5">
+        <v>1</v>
+      </c>
+      <c r="P32" s="5">
         <v>300</v>
       </c>
-      <c r="P32">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R32" s="6">
-        <v>4</v>
-      </c>
-      <c r="S32" t="s">
-        <v>35</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U32" s="5">
-        <v>4</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W32" s="5">
-        <v>2</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z32">
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S32" s="6">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s">
+        <v>35</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V32" s="5">
+        <v>4</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X32" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA32">
         <v>9</v>
       </c>
-      <c r="AA32" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB32" t="s">
+      <c r="AB32" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC32" t="s">
         <v>42</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -3959,71 +4062,74 @@
       <c r="H33" t="s">
         <v>104</v>
       </c>
-      <c r="I33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33">
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33">
         <v>500</v>
       </c>
-      <c r="K33" s="9">
-        <v>2</v>
-      </c>
-      <c r="L33" t="s">
-        <v>36</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N33" s="5">
-        <v>1</v>
+      <c r="L33" s="9">
+        <v>2</v>
+      </c>
+      <c r="M33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O33" s="5">
+        <v>1</v>
+      </c>
+      <c r="P33" s="5">
         <v>100</v>
       </c>
-      <c r="P33">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="5">
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33" s="5">
         <v>40</v>
       </c>
-      <c r="R33" s="6">
-        <v>2</v>
-      </c>
-      <c r="S33" t="s">
-        <v>35</v>
-      </c>
-      <c r="T33" s="5">
-        <v>0</v>
+      <c r="S33" s="6">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s">
+        <v>35</v>
       </c>
       <c r="U33" s="5">
         <v>0</v>
       </c>
-      <c r="V33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W33" s="5">
-        <v>2</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z33">
+      <c r="V33" s="5">
+        <v>0</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X33" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA33">
         <v>15</v>
       </c>
-      <c r="AA33" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC33">
+      <c r="AB33" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -4048,72 +4154,75 @@
       <c r="H34" t="s">
         <v>104</v>
       </c>
-      <c r="I34" t="s">
-        <v>35</v>
-      </c>
-      <c r="J34">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34">
         <f>5*1024</f>
         <v>5120</v>
       </c>
-      <c r="K34" s="9">
-        <v>2</v>
-      </c>
-      <c r="L34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N34" s="5">
-        <v>1</v>
+      <c r="L34" s="9">
+        <v>2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O34" s="5">
+        <v>1</v>
+      </c>
+      <c r="P34" s="5">
         <v>100</v>
       </c>
-      <c r="P34">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="5">
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34" s="5">
         <v>40</v>
       </c>
-      <c r="R34" s="6">
-        <v>2</v>
-      </c>
-      <c r="S34" t="s">
-        <v>35</v>
-      </c>
-      <c r="T34" s="5">
-        <v>0</v>
+      <c r="S34" s="6">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s">
+        <v>35</v>
       </c>
       <c r="U34" s="5">
         <v>0</v>
       </c>
-      <c r="V34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W34" s="5">
-        <v>2</v>
-      </c>
-      <c r="X34" s="6" t="s">
-        <v>38</v>
+      <c r="V34" s="5">
+        <v>0</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X34" s="5">
+        <v>2</v>
       </c>
       <c r="Y34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z34">
-        <v>0</v>
+      <c r="Z34" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA34">
-        <v>4</v>
-      </c>
-      <c r="AB34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>4</v>
+      </c>
+      <c r="AC34" t="s">
         <v>42</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -4138,71 +4247,74 @@
       <c r="H35" t="s">
         <v>36</v>
       </c>
-      <c r="I35" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35">
         <v>5</v>
       </c>
-      <c r="K35" s="9">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
-        <v>36</v>
-      </c>
-      <c r="M35" s="5" t="s">
+      <c r="L35" s="9">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="N35" s="5">
-        <v>0</v>
-      </c>
       <c r="O35" s="5">
-        <v>2</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R35" s="6">
-        <v>4</v>
-      </c>
-      <c r="S35" t="s">
-        <v>35</v>
-      </c>
-      <c r="T35" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S35" s="6">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s">
+        <v>35</v>
       </c>
       <c r="U35" s="5">
         <v>0</v>
       </c>
-      <c r="V35" s="5" t="s">
+      <c r="V35" s="5">
+        <v>0</v>
+      </c>
+      <c r="W35" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="W35" s="5">
-        <v>1</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="6">
+      <c r="X35" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="6">
         <v>100</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
       <c r="AA35">
-        <v>4</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>4</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -4227,71 +4339,74 @@
       <c r="H36" t="s">
         <v>110</v>
       </c>
-      <c r="I36" t="s">
-        <v>35</v>
+      <c r="I36">
+        <v>1</v>
       </c>
       <c r="J36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" t="s">
         <v>41</v>
       </c>
-      <c r="K36" s="9">
-        <v>3</v>
-      </c>
-      <c r="L36" t="s">
-        <v>36</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N36" s="5">
-        <v>1</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P36">
+      <c r="L36" s="9">
+        <v>3</v>
+      </c>
+      <c r="M36" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" s="5">
+        <v>1</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q36">
         <v>5</v>
       </c>
-      <c r="Q36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R36" s="6">
-        <v>4</v>
-      </c>
-      <c r="S36" t="s">
-        <v>35</v>
-      </c>
-      <c r="T36" s="5">
-        <v>0</v>
+      <c r="R36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S36" s="6">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s">
+        <v>35</v>
       </c>
       <c r="U36" s="5">
         <v>0</v>
       </c>
-      <c r="V36" s="5" t="s">
+      <c r="V36" s="5">
+        <v>0</v>
+      </c>
+      <c r="W36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="W36" s="5">
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z36">
+      <c r="X36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA36">
         <v>5</v>
       </c>
-      <c r="AA36" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB36" t="s">
+      <c r="AB36" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC36" t="s">
         <v>42</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -4316,71 +4431,74 @@
       <c r="H37" t="s">
         <v>113</v>
       </c>
-      <c r="I37" t="s">
-        <v>35</v>
+      <c r="I37">
+        <v>1</v>
       </c>
       <c r="J37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" t="s">
         <v>114</v>
       </c>
-      <c r="K37" s="9">
-        <v>3</v>
-      </c>
-      <c r="L37" t="s">
-        <v>36</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N37" s="5">
-        <v>1</v>
+      <c r="L37" s="9">
+        <v>3</v>
+      </c>
+      <c r="M37" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O37" s="5">
-        <v>4</v>
-      </c>
-      <c r="P37">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R37" s="6">
-        <v>4</v>
-      </c>
-      <c r="S37" t="s">
-        <v>35</v>
-      </c>
-      <c r="T37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U37" s="5">
-        <v>4</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W37" s="5">
-        <v>2</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P37" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S37" s="6">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V37" s="5">
+        <v>4</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X37" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA37">
-        <v>4</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>4</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -4405,71 +4523,74 @@
       <c r="H38" t="s">
         <v>113</v>
       </c>
-      <c r="I38" t="s">
-        <v>35</v>
+      <c r="I38">
+        <v>1</v>
       </c>
       <c r="J38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" t="s">
         <v>115</v>
       </c>
-      <c r="K38" s="9">
-        <v>4</v>
-      </c>
-      <c r="L38" t="s">
-        <v>36</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N38" s="5">
-        <v>1</v>
+      <c r="L38" s="9">
+        <v>4</v>
+      </c>
+      <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O38" s="5">
-        <v>4</v>
-      </c>
-      <c r="P38">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R38" s="6">
-        <v>4</v>
-      </c>
-      <c r="S38" t="s">
-        <v>35</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U38" s="5">
-        <v>4</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W38" s="5">
-        <v>2</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="P38" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S38" s="6">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s">
+        <v>35</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V38" s="5">
+        <v>4</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X38" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA38">
         <v>5</v>
       </c>
-      <c r="AA38" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC38">
+      <c r="AB38" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -4494,71 +4615,74 @@
       <c r="H39" t="s">
         <v>118</v>
       </c>
-      <c r="I39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J39">
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39">
         <v>100</v>
       </c>
-      <c r="K39" s="9">
-        <v>2</v>
-      </c>
-      <c r="L39" t="s">
-        <v>36</v>
-      </c>
-      <c r="M39" s="5" t="s">
+      <c r="L39" s="9">
+        <v>2</v>
+      </c>
+      <c r="M39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
       <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
         <v>100</v>
       </c>
-      <c r="P39">
-        <v>3</v>
-      </c>
-      <c r="Q39" s="5">
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39" s="5">
         <v>60</v>
       </c>
-      <c r="R39" s="6">
-        <v>2</v>
-      </c>
-      <c r="S39" t="s">
-        <v>35</v>
-      </c>
-      <c r="T39" s="5">
-        <v>0</v>
+      <c r="S39" s="6">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s">
+        <v>35</v>
       </c>
       <c r="U39" s="5">
         <v>0</v>
       </c>
-      <c r="V39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W39" s="5">
-        <v>2</v>
-      </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z39" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>4</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC39">
+      <c r="V39" s="5">
+        <v>0</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X39" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>4</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -4583,72 +4707,75 @@
       <c r="H40" t="s">
         <v>118</v>
       </c>
-      <c r="I40" t="s">
-        <v>35</v>
+      <c r="I40">
+        <v>1</v>
       </c>
       <c r="J40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" t="s">
         <v>115</v>
       </c>
-      <c r="K40" s="9">
-        <v>4</v>
-      </c>
-      <c r="L40" t="s">
-        <v>36</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N40" s="5">
-        <v>1</v>
+      <c r="L40" s="9">
+        <v>4</v>
+      </c>
+      <c r="M40" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O40" s="5">
+        <v>1</v>
+      </c>
+      <c r="P40" s="5">
         <v>1000</v>
       </c>
-      <c r="P40">
-        <v>4</v>
-      </c>
-      <c r="Q40" s="5">
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="R40" s="5">
         <f>24*60</f>
         <v>1440</v>
       </c>
-      <c r="R40" s="6">
-        <v>3</v>
-      </c>
-      <c r="S40" t="s">
-        <v>35</v>
-      </c>
-      <c r="T40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U40" s="5">
-        <v>4</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W40" s="5">
-        <v>2</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="6" t="s">
-        <v>38</v>
+      <c r="S40" s="6">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s">
+        <v>35</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V40" s="5">
+        <v>4</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X40" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
       </c>
       <c r="Z40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA40" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="AA40" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC40">
+      <c r="AB40" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -4673,71 +4800,74 @@
       <c r="H41" t="s">
         <v>122</v>
       </c>
-      <c r="I41" t="s">
-        <v>35</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41" s="9">
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="9">
         <v>5</v>
       </c>
-      <c r="L41" t="s">
-        <v>36</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N41" s="5">
-        <v>1</v>
+      <c r="M41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O41" s="5">
+        <v>1</v>
+      </c>
+      <c r="P41" s="5">
         <v>100</v>
       </c>
-      <c r="P41">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="5">
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41" s="5">
         <v>40</v>
       </c>
-      <c r="R41" s="6">
-        <v>2</v>
-      </c>
-      <c r="S41" t="s">
-        <v>35</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U41" s="5">
-        <v>4</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W41" s="5">
-        <v>2</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
+      <c r="S41" s="6">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s">
+        <v>35</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V41" s="5">
+        <v>4</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X41" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA41">
-        <v>4</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>4</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -4762,72 +4892,75 @@
       <c r="H42" t="s">
         <v>122</v>
       </c>
-      <c r="I42" t="s">
-        <v>35</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42" s="9">
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="9">
         <v>5</v>
       </c>
-      <c r="L42" t="s">
-        <v>36</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N42" s="5">
-        <v>1</v>
+      <c r="M42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O42" s="5">
+        <v>1</v>
+      </c>
+      <c r="P42" s="5">
         <v>200</v>
       </c>
-      <c r="P42">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="5">
+      <c r="Q42">
+        <v>4</v>
+      </c>
+      <c r="R42" s="5">
         <f>24*60</f>
         <v>1440</v>
       </c>
-      <c r="R42" s="6">
-        <v>3</v>
-      </c>
-      <c r="S42" t="s">
-        <v>35</v>
-      </c>
-      <c r="T42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U42" s="5">
-        <v>4</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W42" s="5">
-        <v>2</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z42">
+      <c r="S42" s="6">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s">
+        <v>35</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V42" s="5">
+        <v>4</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X42" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA42">
         <v>12</v>
       </c>
-      <c r="AA42" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB42" t="s">
+      <c r="AB42" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC42" t="s">
         <v>42</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -4853,71 +4986,74 @@
       <c r="H43" t="s">
         <v>127</v>
       </c>
-      <c r="I43" t="s">
-        <v>35</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K43" s="9">
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" s="9">
         <v>5</v>
       </c>
-      <c r="L43" t="s">
-        <v>36</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N43" s="5">
-        <v>1</v>
+      <c r="M43" t="s">
+        <v>36</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O43" s="5">
+        <v>1</v>
+      </c>
+      <c r="P43" s="5">
         <v>5</v>
       </c>
-      <c r="P43">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R43" s="6">
-        <v>4</v>
-      </c>
-      <c r="S43" t="s">
-        <v>35</v>
-      </c>
-      <c r="T43" s="5" t="s">
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S43" s="6">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s">
+        <v>35</v>
+      </c>
+      <c r="U43" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="U43" s="5">
-        <v>2</v>
-      </c>
-      <c r="V43" s="5" t="s">
+      <c r="V43" s="5">
+        <v>2</v>
+      </c>
+      <c r="W43" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="W43" s="5">
-        <v>1</v>
-      </c>
-      <c r="X43">
-        <v>12</v>
+      <c r="X43" s="5">
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>12</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA43">
-        <v>2</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>2</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -4943,71 +5079,74 @@
       <c r="H44" t="s">
         <v>130</v>
       </c>
-      <c r="I44" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K44" s="9">
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" s="9">
         <v>5</v>
       </c>
-      <c r="L44" t="s">
-        <v>36</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N44" s="5">
-        <v>1</v>
+      <c r="M44" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O44" s="5">
+        <v>1</v>
+      </c>
+      <c r="P44" s="5">
         <v>5</v>
       </c>
-      <c r="P44">
-        <v>2</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R44" s="6">
-        <v>4</v>
-      </c>
-      <c r="S44" t="s">
-        <v>35</v>
-      </c>
-      <c r="T44" s="5" t="s">
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S44" s="6">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s">
+        <v>35</v>
+      </c>
+      <c r="U44" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="U44" s="5">
-        <v>2</v>
-      </c>
-      <c r="V44" s="5" t="s">
+      <c r="V44" s="5">
+        <v>2</v>
+      </c>
+      <c r="W44" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="W44" s="5">
-        <v>1</v>
-      </c>
-      <c r="X44">
-        <v>30</v>
+      <c r="X44" s="5">
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>30</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA44">
-        <v>2</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>2</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -5032,71 +5171,74 @@
       <c r="H45" t="s">
         <v>133</v>
       </c>
-      <c r="I45" t="s">
-        <v>35</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K45" s="9">
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45" s="9">
         <v>5</v>
       </c>
-      <c r="L45" t="s">
-        <v>36</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N45" s="5">
-        <v>1</v>
+      <c r="M45" t="s">
+        <v>36</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O45" s="5">
+        <v>1</v>
+      </c>
+      <c r="P45" s="5">
         <v>5</v>
       </c>
-      <c r="P45">
-        <v>2</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R45" s="6">
-        <v>4</v>
-      </c>
-      <c r="S45" t="s">
-        <v>35</v>
-      </c>
-      <c r="T45" s="5">
-        <v>0</v>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S45" s="6">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s">
+        <v>35</v>
       </c>
       <c r="U45" s="5">
         <v>0</v>
       </c>
-      <c r="V45" s="5" t="s">
+      <c r="V45" s="5">
+        <v>0</v>
+      </c>
+      <c r="W45" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="W45" s="5">
-        <v>1</v>
-      </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z45">
-        <v>4</v>
-      </c>
-      <c r="AA45" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB45" t="s">
+      <c r="X45" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA45">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC45" t="s">
         <v>42</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -5121,71 +5263,74 @@
       <c r="H46" t="s">
         <v>136</v>
       </c>
-      <c r="I46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J46">
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46">
         <v>6</v>
       </c>
-      <c r="K46" s="9">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
-        <v>36</v>
-      </c>
-      <c r="M46" s="5" t="s">
+      <c r="L46" s="9">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>36</v>
+      </c>
+      <c r="N46" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N46" s="5">
-        <v>0</v>
-      </c>
       <c r="O46" s="5">
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
         <v>75</v>
       </c>
-      <c r="P46">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R46" s="6">
-        <v>4</v>
-      </c>
-      <c r="S46" t="s">
-        <v>35</v>
-      </c>
-      <c r="T46" s="5">
-        <v>0</v>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S46" s="6">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s">
+        <v>35</v>
       </c>
       <c r="U46" s="5">
         <v>0</v>
       </c>
-      <c r="V46" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W46" s="5">
-        <v>2</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
+      <c r="V46" s="5">
+        <v>0</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X46" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA46">
-        <v>4</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>4</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -5210,71 +5355,74 @@
       <c r="H47" t="s">
         <v>138</v>
       </c>
-      <c r="I47" t="s">
-        <v>35</v>
+      <c r="I47">
+        <v>1</v>
       </c>
       <c r="J47" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47" t="s">
         <v>139</v>
       </c>
-      <c r="K47" s="9">
-        <v>2</v>
-      </c>
-      <c r="L47" t="s">
-        <v>36</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N47" s="5">
-        <v>1</v>
+      <c r="L47" s="9">
+        <v>2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>36</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O47" s="5">
+        <v>1</v>
+      </c>
+      <c r="P47" s="5">
         <v>75</v>
       </c>
-      <c r="P47">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R47" s="6">
-        <v>4</v>
-      </c>
-      <c r="S47" t="s">
-        <v>35</v>
-      </c>
-      <c r="T47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U47" s="5">
-        <v>4</v>
-      </c>
-      <c r="V47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W47" s="5">
-        <v>2</v>
-      </c>
-      <c r="X47">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="6" t="s">
-        <v>38</v>
+      <c r="Q47">
+        <v>3</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S47" s="6">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s">
+        <v>35</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V47" s="5">
+        <v>4</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X47" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
       </c>
       <c r="Z47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA47" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AA47" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB47" t="s">
+      <c r="AB47" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC47" t="s">
         <v>42</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>134</v>
       </c>
@@ -5299,67 +5447,70 @@
       <c r="H48" t="s">
         <v>141</v>
       </c>
-      <c r="I48" t="s">
-        <v>35</v>
+      <c r="I48">
+        <v>1</v>
       </c>
       <c r="J48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" t="s">
         <v>142</v>
       </c>
-      <c r="K48" s="9">
-        <v>3</v>
-      </c>
-      <c r="L48" t="s">
-        <v>36</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N48" s="5">
-        <v>1</v>
+      <c r="L48" s="9">
+        <v>3</v>
+      </c>
+      <c r="M48" t="s">
+        <v>36</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="O48" s="5">
+        <v>1</v>
+      </c>
+      <c r="P48" s="5">
         <v>75</v>
       </c>
-      <c r="P48">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R48" s="6">
-        <v>4</v>
-      </c>
-      <c r="S48" t="s">
-        <v>35</v>
-      </c>
-      <c r="T48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U48" s="5">
-        <v>4</v>
-      </c>
-      <c r="V48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W48" s="5">
-        <v>2</v>
-      </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="6" t="s">
-        <v>38</v>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S48" s="6">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s">
+        <v>35</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V48" s="5">
+        <v>4</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X48" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
       </c>
       <c r="Z48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA48" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="AA48" s="6">
-        <v>3</v>
-      </c>
-      <c r="AB48" t="s">
+      <c r="AB48" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC48" t="s">
         <v>42</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>3</v>
       </c>
     </row>
